--- a/input/raw_data/data_extraction/series_data_end.xlsx
+++ b/input/raw_data/data_extraction/series_data_end.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AA434E02-E0A4-1F4A-B7E2-2A6BC7E02A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC55E67-DA74-5146-8968-061C30665E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="880" windowWidth="20580" windowHeight="12220" xr2:uid="{0E2D75EA-57F1-7A41-B7A5-2B66F384E0FB}"/>
+    <workbookView xWindow="20540" yWindow="880" windowWidth="20580" windowHeight="12220" xr2:uid="{0E2D75EA-57F1-7A41-B7A5-2B66F384E0FB}"/>
   </bookViews>
   <sheets>
     <sheet name="series_data_end" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="102">
   <si>
     <t>Study_ID</t>
   </si>
@@ -281,6 +281,51 @@
   </si>
   <si>
     <t>3.6%) including mucosal trauma and/or bleeding not requiring transfusion (in 10 cases; 3.3%)</t>
+  </si>
+  <si>
+    <t>Object_Count</t>
+  </si>
+  <si>
+    <t>Does not report number of rates of complications for whole population. Or rate of multiple object ingestion.</t>
+  </si>
+  <si>
+    <t>Verified_Ingestion_Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does not give empirical data on population characteristics, or outcomes (apart from mortality and prisoner status). Does not talk about individual motivation, but gives a qualitative description of the typical patient engaging in self-harm in this prison system. </t>
+  </si>
+  <si>
+    <t>because IFO impacted at ileum and it was checked radiologically</t>
+  </si>
+  <si>
+    <t>Mixed suicide attempt population</t>
+  </si>
+  <si>
+    <t>Verified_Ingestion_Cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IIFO rates were compared according to gender, diagnosis and level of security at a UK inpatient psychiatric facility. Does not report outcomes of interest. </t>
+  </si>
+  <si>
+    <t>"a male infant was fed the buckyballs by his older cousin for his own amusement, a school-aged boy ingested the balls deliberately to demonstrate his bravery, another girl swallowed the Buckyballs because she mistook them for candy."</t>
+  </si>
+  <si>
+    <t>Gastroscopy 16 21.6 7 Colonoscopy 1 1.4 0 Laparoscopic surgery 6 8.1 5 Laparotomy surgery 41 55.4 41 Conversion to laparotomy 10 13.5 10 Findings Gastrointestinal perforation 38 51.4 Ischemia and necrosis of gastrointestinal wall 14 19.0 Abscess 7 9.5 Intestinal obstruction 6 8.1 Fistula 2 2.7 Gastrointestinal mucosa erosion 28 37.8 –</t>
+  </si>
+  <si>
+    <t>Mixed population of intentional non-intentional presenting to endoscopy centre.</t>
+  </si>
+  <si>
+    <t>Mixed population (intentional vs non). Does not report rates of intentional ingestion. Excluded patients that presented with perforated viscus as intention is to review hospital management with best practice guidelines</t>
+  </si>
+  <si>
+    <t>metal spoon lodged in the duodenal cap with erosion into the duodenal wall</t>
+  </si>
+  <si>
+    <t>Local adverse events (superficial mucosal lesion or erythema) 94 (24.7), Major adverse event (requiring hospital admission) e 8 (2.1) a, Two or more in the same patient. bOf 286 FBIs verified with history, imaging, or endoscopy. cRetraction damage injuries: lower esophageal sphincter and mild oral bleeding. dSurgery performed for esophageal perforation, and an unfolded lid-can in the stomach. eBleedings [2], esophageal perforations [2], deep esophageal ulcer, systemic inflammatory response syndrome, aspiration, and allergic reaction.</t>
+  </si>
+  <si>
+    <t>Complications included pulmonary embolism, pneumonia, enterotomy, hernia, and infection</t>
   </si>
 </sst>
 </file>
@@ -1144,32 +1189,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECC6BD9-0A52-0246-BDA7-1FC0AB56AA9E}">
-  <dimension ref="A1:CE4"/>
+  <dimension ref="A1:CH20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BS20" sqref="BS20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="3.6640625" customWidth="1"/>
-    <col min="17" max="24" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="50" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="64" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="78" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="3.6640625" customWidth="1"/>
-    <col min="80" max="83" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.1640625" customWidth="1"/>
+    <col min="7" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="3.6640625" customWidth="1"/>
+    <col min="19" max="19" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="40" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="48" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="3.6640625" customWidth="1"/>
+    <col min="50" max="53" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="67" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="79" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="3.6640625" customWidth="1"/>
+    <col min="83" max="86" width="3.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="239" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:86" ht="239" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1183,244 +1243,253 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>46</v>
       </c>
@@ -1430,57 +1499,51 @@
       <c r="D2">
         <v>36</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>15</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>69</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>25.8</v>
       </c>
-      <c r="H2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2">
+      <c r="J2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2">
+      <c r="L2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2" t="s">
         <v>80</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2">
         <v>36</v>
       </c>
-      <c r="P2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q2">
+      <c r="R2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S2">
         <v>20</v>
       </c>
-      <c r="R2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S2">
+      <c r="T2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2">
         <v>10</v>
       </c>
-      <c r="T2" t="s">
-        <v>80</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
       <c r="V2" t="s">
         <v>80</v>
       </c>
@@ -1491,26 +1554,26 @@
         <v>80</v>
       </c>
       <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA2">
         <v>6</v>
       </c>
-      <c r="Z2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>80</v>
-      </c>
       <c r="AB2" t="s">
         <v>80</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE2">
         <v>14</v>
       </c>
-      <c r="AD2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>80</v>
-      </c>
       <c r="AF2" t="s">
         <v>80</v>
       </c>
@@ -1538,11 +1601,11 @@
       <c r="AN2" t="s">
         <v>80</v>
       </c>
-      <c r="AO2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>80</v>
+      <c r="AO2">
+        <v>36</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
       </c>
       <c r="AQ2" t="s">
         <v>80</v>
@@ -1556,119 +1619,125 @@
       <c r="AT2" t="s">
         <v>80</v>
       </c>
-      <c r="AU2">
-        <v>0</v>
+      <c r="AU2" t="s">
+        <v>80</v>
       </c>
       <c r="AV2" t="s">
         <v>80</v>
       </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>80</v>
+      <c r="AX2">
+        <v>0</v>
       </c>
       <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB2">
         <v>6</v>
       </c>
-      <c r="AZ2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BA2">
+      <c r="BC2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD2">
         <v>6</v>
       </c>
-      <c r="BB2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BC2">
+      <c r="BE2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF2">
         <v>32</v>
       </c>
-      <c r="BD2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE2">
+      <c r="BG2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH2">
         <v>14</v>
       </c>
-      <c r="BF2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BI2">
+      <c r="BI2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL2">
         <v>30</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BM2">
+      <c r="BM2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP2">
         <v>4</v>
       </c>
-      <c r="BN2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BO2">
+      <c r="BQ2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR2">
         <v>2</v>
       </c>
-      <c r="BP2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>0</v>
-      </c>
-      <c r="BS2">
+      <c r="BS2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
         <v>3</v>
       </c>
-      <c r="BT2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BU2">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BW2">
+      <c r="BW2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX2">
+        <v>1</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ2">
         <v>2</v>
       </c>
-      <c r="BX2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BY2">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>80</v>
-      </c>
       <c r="CA2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB2">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD2" t="s">
         <v>82</v>
       </c>
-      <c r="CB2">
+      <c r="CE2">
         <v>30</v>
       </c>
-      <c r="CC2" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD2">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="s">
+      <c r="CF2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG2">
+        <v>1</v>
+      </c>
+      <c r="CH2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>131</v>
       </c>
@@ -1678,21 +1747,15 @@
       <c r="D3">
         <v>262</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>17</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>82</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" t="s">
-        <v>80</v>
-      </c>
       <c r="J3" t="s">
         <v>80</v>
       </c>
@@ -1711,15 +1774,15 @@
       <c r="O3" t="s">
         <v>80</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3">
+        <v>262</v>
+      </c>
+      <c r="R3">
         <v>0.92</v>
       </c>
-      <c r="Q3" t="s">
-        <v>80</v>
-      </c>
-      <c r="R3" t="s">
-        <v>80</v>
-      </c>
       <c r="S3" t="s">
         <v>80</v>
       </c>
@@ -1738,30 +1801,30 @@
       <c r="X3" t="s">
         <v>80</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA3">
         <v>222</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>0.85</v>
       </c>
-      <c r="AA3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC3">
+      <c r="AC3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE3">
         <v>219</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>0.84</v>
       </c>
-      <c r="AE3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>80</v>
-      </c>
       <c r="AG3" t="s">
         <v>80</v>
       </c>
@@ -1783,14 +1846,14 @@
       <c r="AM3" t="s">
         <v>80</v>
       </c>
-      <c r="AN3">
-        <v>1</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>80</v>
+      <c r="AN3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO3">
+        <v>262</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
       </c>
       <c r="AQ3" t="s">
         <v>80</v>
@@ -1810,113 +1873,119 @@
       <c r="AV3" t="s">
         <v>80</v>
       </c>
-      <c r="AW3" t="s">
-        <v>80</v>
-      </c>
       <c r="AX3" t="s">
         <v>80</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB3">
         <v>147</v>
       </c>
-      <c r="AZ3">
+      <c r="BC3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="BA3" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>80</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>80</v>
-      </c>
       <c r="BD3" t="s">
         <v>80</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH3">
         <v>71</v>
       </c>
-      <c r="BF3">
+      <c r="BI3">
         <v>0.27</v>
       </c>
-      <c r="BG3" t="s">
-        <v>80</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>80</v>
-      </c>
-      <c r="BI3">
+      <c r="BJ3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL3">
         <v>46</v>
       </c>
-      <c r="BJ3">
+      <c r="BM3">
         <v>0.18</v>
       </c>
-      <c r="BK3">
+      <c r="BN3">
         <v>9</v>
       </c>
-      <c r="BL3" t="s">
-        <v>80</v>
-      </c>
-      <c r="BM3">
+      <c r="BO3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP3">
         <v>189</v>
       </c>
-      <c r="BN3" t="s">
-        <v>80</v>
-      </c>
-      <c r="BO3">
+      <c r="BQ3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR3">
         <v>30</v>
       </c>
-      <c r="BP3" t="s">
-        <v>80</v>
-      </c>
-      <c r="BQ3">
-        <v>0</v>
-      </c>
-      <c r="BR3">
-        <v>0</v>
-      </c>
-      <c r="BS3">
+      <c r="BS3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
         <v>20</v>
       </c>
-      <c r="BT3" t="s">
-        <v>80</v>
-      </c>
-      <c r="BU3">
+      <c r="BW3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX3">
         <v>16</v>
       </c>
-      <c r="BV3" t="s">
-        <v>80</v>
-      </c>
-      <c r="BW3">
-        <v>0</v>
-      </c>
-      <c r="BX3">
-        <v>0</v>
-      </c>
-      <c r="BY3">
+      <c r="BY3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
         <v>4</v>
       </c>
-      <c r="BZ3">
-        <v>0</v>
-      </c>
-      <c r="CA3" t="s">
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="s">
         <v>85</v>
       </c>
-      <c r="CB3" t="s">
-        <v>80</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD3">
+      <c r="CE3" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG3">
         <v>12</v>
       </c>
-      <c r="CE3" t="s">
+      <c r="CH3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>139</v>
       </c>
@@ -1926,44 +1995,41 @@
       <c r="D4">
         <v>305</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>18</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>56</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>35.4</v>
       </c>
-      <c r="I4">
+      <c r="J4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4">
         <v>19</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.57599999999999996</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>14</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.42399999999999999</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
       <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>305</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R4" t="s">
-        <v>80</v>
+      <c r="R4">
+        <v>1</v>
       </c>
       <c r="S4" t="s">
         <v>80</v>
@@ -1986,15 +2052,15 @@
       <c r="Y4" t="s">
         <v>80</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB4">
         <v>0.79</v>
       </c>
-      <c r="AA4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>80</v>
-      </c>
       <c r="AC4" t="s">
         <v>80</v>
       </c>
@@ -2028,14 +2094,14 @@
       <c r="AM4" t="s">
         <v>80</v>
       </c>
-      <c r="AN4">
-        <v>1</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>80</v>
+      <c r="AN4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO4">
+        <v>305</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
       </c>
       <c r="AQ4" t="s">
         <v>80</v>
@@ -2055,36 +2121,33 @@
       <c r="AV4" t="s">
         <v>80</v>
       </c>
-      <c r="AW4" t="s">
-        <v>80</v>
-      </c>
       <c r="AX4" t="s">
         <v>80</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB4">
         <v>146</v>
       </c>
-      <c r="AZ4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BC4">
+      <c r="BC4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF4">
         <v>63</v>
       </c>
-      <c r="BD4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>80</v>
-      </c>
       <c r="BG4" t="s">
         <v>80</v>
       </c>
@@ -2109,59 +2172,4187 @@
       <c r="BN4" t="s">
         <v>80</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR4">
         <v>2</v>
       </c>
-      <c r="BP4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>0</v>
-      </c>
-      <c r="BS4">
+      <c r="BS4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
         <v>11</v>
       </c>
-      <c r="BT4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4">
-        <v>1</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>80</v>
+      <c r="BW4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
       </c>
       <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>1</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB4">
         <v>10</v>
       </c>
-      <c r="BZ4" t="s">
-        <v>80</v>
-      </c>
-      <c r="CA4" t="s">
+      <c r="CC4" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD4" t="s">
         <v>86</v>
       </c>
-      <c r="CB4" t="s">
-        <v>80</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD4">
+      <c r="CE4" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG4">
         <v>2</v>
       </c>
-      <c r="CE4" t="s">
+      <c r="CH4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>141</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>48</v>
+      </c>
+      <c r="I5">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="M5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>141</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>141</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB5">
+        <v>0.9</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF5">
+        <v>0.3</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO5">
+        <v>141</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW5">
+        <v>228</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC5">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE5">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG5">
+        <v>0.316</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM5">
+        <v>0.312</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP5">
+        <v>97</v>
+      </c>
+      <c r="BQ5">
+        <v>0.66</v>
+      </c>
+      <c r="BR5">
+        <v>11</v>
+      </c>
+      <c r="BS5">
+        <v>0.08</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF5">
+        <v>0.26</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>256</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>762</v>
+      </c>
+      <c r="D6">
+        <v>472</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6">
+        <v>472</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>472</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>472</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z6">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB6">
+        <v>0.46</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO6">
+        <v>472</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW6">
+        <v>1175</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BU6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>266</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>48</v>
+      </c>
+      <c r="I7">
+        <v>33.9</v>
+      </c>
+      <c r="J7">
+        <v>35</v>
+      </c>
+      <c r="K7">
+        <v>21</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>21</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>21</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>80</v>
+      </c>
+      <c r="X7">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB7">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO7">
+        <v>21</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW7">
+        <v>34</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY7">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG7">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI7">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ7">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="BR7">
+        <v>1</v>
+      </c>
+      <c r="BS7">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC7">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF7">
+        <v>0.3</v>
+      </c>
+      <c r="CG7">
+        <v>1</v>
+      </c>
+      <c r="CH7">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>288</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8">
+        <v>58</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8">
+        <v>0.43</v>
+      </c>
+      <c r="M8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="Q8">
+        <v>17</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>17</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
+        <v>80</v>
+      </c>
+      <c r="X8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA8">
+        <v>17</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD8">
+        <v>0.128</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO8">
+        <v>17</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>307</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>36</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9">
+        <v>24.7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="M9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>9</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>13</v>
+      </c>
+      <c r="T9">
+        <v>0.5</v>
+      </c>
+      <c r="U9">
+        <v>10</v>
+      </c>
+      <c r="V9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="W9" t="s">
+        <v>80</v>
+      </c>
+      <c r="X9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB9">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF9">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO9">
+        <v>36</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW9">
+        <v>23</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC9">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG9">
+        <v>0.435</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI9">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK9">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM9">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO9">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="BP9">
+        <v>36</v>
+      </c>
+      <c r="BQ9">
+        <v>1</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>312</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>133</v>
+      </c>
+      <c r="E10">
+        <v>133</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10">
+        <v>114</v>
+      </c>
+      <c r="N10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>133</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>133</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10" t="s">
+        <v>80</v>
+      </c>
+      <c r="X10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA10">
+        <v>133</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO10">
+        <v>133</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW10">
+        <v>142</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>321</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>24</v>
+      </c>
+      <c r="H11">
+        <v>24</v>
+      </c>
+      <c r="I11">
+        <v>24</v>
+      </c>
+      <c r="J11">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>80</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA11">
+        <v>22</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>21</v>
+      </c>
+      <c r="AF11">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="AG11">
+        <v>22</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>22</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP11">
+        <v>14</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR11">
+        <v>1</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>13</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE11">
+        <v>9</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>336</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>74</v>
+      </c>
+      <c r="D12">
+        <v>74</v>
+      </c>
+      <c r="E12">
+        <v>74</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12">
+        <v>1.5</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
+      </c>
+      <c r="L12">
+        <v>0.68</v>
+      </c>
+      <c r="M12">
+        <v>24</v>
+      </c>
+      <c r="N12">
+        <v>0.32</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>80</v>
+      </c>
+      <c r="X12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>3</v>
+      </c>
+      <c r="AN12">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA12">
+        <v>1</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>27</v>
+      </c>
+      <c r="BQ12">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="BR12">
+        <v>57</v>
+      </c>
+      <c r="BS12">
+        <v>0.77</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY12">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA12">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC12">
+        <v>0.69</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>96</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH12">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>342</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13">
+        <v>1110</v>
+      </c>
+      <c r="D13">
+        <v>1110</v>
+      </c>
+      <c r="E13">
+        <v>1110</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13">
+        <v>576</v>
+      </c>
+      <c r="L13" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13">
+        <v>534</v>
+      </c>
+      <c r="N13" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>90</v>
+      </c>
+      <c r="R13">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="S13">
+        <v>79</v>
+      </c>
+      <c r="T13" t="s">
+        <v>80</v>
+      </c>
+      <c r="U13" t="s">
+        <v>80</v>
+      </c>
+      <c r="V13" t="s">
+        <v>80</v>
+      </c>
+      <c r="W13" t="s">
+        <v>80</v>
+      </c>
+      <c r="X13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA13">
+        <v>11</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO13">
+        <v>1110</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW13">
+        <v>1110</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB13">
+        <v>5</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD13">
+        <v>1</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF13">
+        <v>25</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP13">
+        <v>1110</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE13">
+        <v>0</v>
+      </c>
+      <c r="CF13">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>401</v>
+      </c>
+      <c r="C14">
+        <v>51</v>
+      </c>
+      <c r="D14">
+        <v>239</v>
+      </c>
+      <c r="E14">
+        <v>239</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14">
+        <v>23</v>
+      </c>
+      <c r="J14">
+        <v>0.22</v>
+      </c>
+      <c r="K14">
+        <v>52</v>
+      </c>
+      <c r="L14">
+        <v>0.22</v>
+      </c>
+      <c r="M14">
+        <v>187</v>
+      </c>
+      <c r="N14">
+        <v>0.78</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>239</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T14" t="s">
+        <v>80</v>
+      </c>
+      <c r="U14">
+        <v>133</v>
+      </c>
+      <c r="V14" t="s">
+        <v>80</v>
+      </c>
+      <c r="W14" t="s">
+        <v>80</v>
+      </c>
+      <c r="X14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA14">
+        <v>223</v>
+      </c>
+      <c r="AB14">
+        <v>0.93</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO14">
+        <v>239</v>
+      </c>
+      <c r="AP14">
+        <v>1</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW14">
+        <v>174</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC14">
+        <v>0.247</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE14">
+        <v>0.221</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG14">
+        <v>0.374</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM14">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP14">
+        <v>218</v>
+      </c>
+      <c r="BQ14">
+        <v>90</v>
+      </c>
+      <c r="BR14">
+        <v>4</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BU14">
+        <v>0</v>
+      </c>
+      <c r="BV14">
+        <v>71</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX14">
+        <v>0</v>
+      </c>
+      <c r="BY14">
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB14">
+        <v>0</v>
+      </c>
+      <c r="CC14">
+        <v>0</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE14">
+        <v>21</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG14">
+        <v>4</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>432</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15">
+        <v>63</v>
+      </c>
+      <c r="D15">
+        <v>157</v>
+      </c>
+      <c r="E15">
+        <v>157</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15">
+        <v>30</v>
+      </c>
+      <c r="K15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15">
+        <v>0.5</v>
+      </c>
+      <c r="M15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15">
+        <v>0.5</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>104</v>
+      </c>
+      <c r="R15">
+        <v>0.65</v>
+      </c>
+      <c r="S15" t="s">
+        <v>80</v>
+      </c>
+      <c r="T15">
+        <v>0.65</v>
+      </c>
+      <c r="U15" t="s">
+        <v>80</v>
+      </c>
+      <c r="V15" t="s">
+        <v>80</v>
+      </c>
+      <c r="W15" t="s">
+        <v>80</v>
+      </c>
+      <c r="X15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB15">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF15">
+        <v>0.44</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO15">
+        <v>157</v>
+      </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB15">
+        <v>52</v>
+      </c>
+      <c r="BD15">
+        <v>9</v>
+      </c>
+      <c r="BF15">
+        <v>43</v>
+      </c>
+      <c r="BG15">
+        <v>25</v>
+      </c>
+      <c r="BH15">
+        <v>0.16</v>
+      </c>
+      <c r="BI15">
+        <v>0.16</v>
+      </c>
+      <c r="BJ15">
+        <v>52</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ15">
+        <v>0.45</v>
+      </c>
+      <c r="BR15">
+        <v>3</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BU15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <v>1</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX15">
+        <v>0</v>
+      </c>
+      <c r="BY15">
+        <v>0</v>
+      </c>
+      <c r="BZ15">
+        <v>0</v>
+      </c>
+      <c r="CA15">
+        <v>0</v>
+      </c>
+      <c r="CB15">
+        <v>1</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG15">
+        <v>2</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>441</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16">
+        <v>32</v>
+      </c>
+      <c r="K16" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="M16" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>80</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16" t="s">
+        <v>80</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>80</v>
+      </c>
+      <c r="X16" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP16">
+        <v>1</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW16">
+        <v>47</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD16">
+        <v>0.19</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ16">
+        <v>0.5</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS16">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF16">
+        <v>0.5</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>442</v>
+      </c>
+      <c r="C17">
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <v>166</v>
+      </c>
+      <c r="E17">
+        <v>166</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17">
+        <v>32.9</v>
+      </c>
+      <c r="J17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="M17" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>166</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s">
+        <v>80</v>
+      </c>
+      <c r="T17" t="s">
+        <v>80</v>
+      </c>
+      <c r="U17" t="s">
+        <v>80</v>
+      </c>
+      <c r="V17" t="s">
+        <v>80</v>
+      </c>
+      <c r="W17" t="s">
+        <v>80</v>
+      </c>
+      <c r="X17" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB17">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD17">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH17">
+        <v>0.87</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP17">
+        <v>0.13</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX17">
+        <v>38</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ17">
+        <v>5</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF17">
+        <v>76</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ17">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV17">
+        <v>3</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX17">
+        <v>2</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB17">
+        <v>5</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>444</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18">
+        <v>18</v>
+      </c>
+      <c r="H18">
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <v>18</v>
+      </c>
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>80</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18" t="s">
+        <v>80</v>
+      </c>
+      <c r="V18" t="s">
+        <v>80</v>
+      </c>
+      <c r="W18" t="s">
+        <v>80</v>
+      </c>
+      <c r="X18" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>10</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC18">
+        <v>0.6</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM18">
+        <v>0.4</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18">
+        <v>8</v>
+      </c>
+      <c r="BQ18">
+        <v>0.8</v>
+      </c>
+      <c r="BR18">
+        <v>1</v>
+      </c>
+      <c r="BS18">
+        <v>0.1</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC18" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>450</v>
+      </c>
+      <c r="C19">
+        <v>341</v>
+      </c>
+      <c r="D19">
+        <v>381</v>
+      </c>
+      <c r="E19">
+        <v>286</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19">
+        <v>49.2</v>
+      </c>
+      <c r="K19">
+        <v>237</v>
+      </c>
+      <c r="L19">
+        <v>0.622</v>
+      </c>
+      <c r="M19">
+        <v>144</v>
+      </c>
+      <c r="N19">
+        <v>0.378</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>57</v>
+      </c>
+      <c r="R19">
+        <v>0.154</v>
+      </c>
+      <c r="S19">
+        <v>54</v>
+      </c>
+      <c r="T19">
+        <v>0.158</v>
+      </c>
+      <c r="U19" t="s">
+        <v>80</v>
+      </c>
+      <c r="V19" t="s">
+        <v>80</v>
+      </c>
+      <c r="W19" t="s">
+        <v>80</v>
+      </c>
+      <c r="X19" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA19">
+        <v>36</v>
+      </c>
+      <c r="AB19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO19">
+        <v>381</v>
+      </c>
+      <c r="AP19">
+        <v>1</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW19">
+        <v>385</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY19">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC19">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG19">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM19">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="BN19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP19">
+        <v>381</v>
+      </c>
+      <c r="BQ19">
+        <v>1</v>
+      </c>
+      <c r="BR19">
+        <v>2</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BU19">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX19">
+        <v>3</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB19">
+        <v>102</v>
+      </c>
+      <c r="CC19" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE19">
+        <v>0</v>
+      </c>
+      <c r="CF19">
+        <v>0</v>
+      </c>
+      <c r="CG19">
+        <v>2</v>
+      </c>
+      <c r="CH19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>461</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" t="s">
+        <v>80</v>
+      </c>
+      <c r="M20" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20">
+        <v>52</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>52</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s">
+        <v>80</v>
+      </c>
+      <c r="T20" t="s">
+        <v>80</v>
+      </c>
+      <c r="U20" t="s">
+        <v>80</v>
+      </c>
+      <c r="V20" t="s">
+        <v>80</v>
+      </c>
+      <c r="W20" t="s">
+        <v>80</v>
+      </c>
+      <c r="X20" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP20">
+        <v>24</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR20">
+        <v>12</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB20" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC20" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>101</v>
+      </c>
+      <c r="CE20" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF20" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH20" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/input/raw_data/data_extraction/series_data_end.xlsx
+++ b/input/raw_data/data_extraction/series_data_end.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC55E67-DA74-5146-8968-061C30665E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D24FEA5-ACED-FA4B-B872-0E50068C8286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20540" yWindow="880" windowWidth="20580" windowHeight="12220" xr2:uid="{0E2D75EA-57F1-7A41-B7A5-2B66F384E0FB}"/>
+    <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="24420" xr2:uid="{0E2D75EA-57F1-7A41-B7A5-2B66F384E0FB}"/>
   </bookViews>
   <sheets>
     <sheet name="series_data_end" sheetId="1" r:id="rId1"/>
@@ -274,9 +274,6 @@
     <t>Is_Intentional_Cases</t>
   </si>
   <si>
-    <t>Is_Intention_Rate</t>
-  </si>
-  <si>
     <t>Bleeding</t>
   </si>
   <si>
@@ -326,6 +323,9 @@
   </si>
   <si>
     <t>Complications included pulmonary embolism, pneumonia, enterotomy, hernia, and infection</t>
+  </si>
+  <si>
+    <t>Is_Intentional_Rate</t>
   </si>
 </sst>
 </file>
@@ -1192,15 +1192,15 @@
   <dimension ref="A1:CH20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BS20" sqref="BS20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" customWidth="1"/>
-    <col min="7" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.1640625" customWidth="1"/>
     <col min="11" max="13" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4.1640625" bestFit="1" customWidth="1"/>
@@ -1243,22 +1243,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -1282,7 +1282,7 @@
         <v>83</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>14</v>
@@ -1375,7 +1375,7 @@
         <v>43</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AX1" s="1" t="s">
         <v>44</v>
@@ -1499,16 +1499,16 @@
       <c r="D2">
         <v>36</v>
       </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>69</v>
+      </c>
       <c r="G2">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>69</v>
-      </c>
-      <c r="I2">
         <v>25.8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="H2" t="s">
         <v>80</v>
       </c>
       <c r="K2">
@@ -1747,16 +1747,16 @@
       <c r="D3">
         <v>262</v>
       </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>82</v>
+      </c>
       <c r="G3">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <v>82</v>
-      </c>
-      <c r="I3">
         <v>33</v>
       </c>
-      <c r="J3" t="s">
+      <c r="H3" t="s">
         <v>80</v>
       </c>
       <c r="K3" t="s">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="CD3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="CE3" t="s">
         <v>80</v>
@@ -1995,16 +1995,16 @@
       <c r="D4">
         <v>305</v>
       </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>56</v>
+      </c>
       <c r="G4">
-        <v>18</v>
-      </c>
-      <c r="H4">
-        <v>56</v>
-      </c>
-      <c r="I4">
         <v>35.4</v>
       </c>
-      <c r="J4" t="s">
+      <c r="H4" t="s">
         <v>80</v>
       </c>
       <c r="K4">
@@ -2218,7 +2218,7 @@
         <v>80</v>
       </c>
       <c r="CD4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CE4" t="s">
         <v>80</v>
@@ -2238,7 +2238,7 @@
         <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -2246,16 +2246,16 @@
       <c r="D5">
         <v>141</v>
       </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>48</v>
+      </c>
       <c r="G5">
-        <v>20</v>
-      </c>
-      <c r="H5">
-        <v>48</v>
-      </c>
-      <c r="I5">
         <v>27</v>
       </c>
-      <c r="J5" t="s">
+      <c r="H5" t="s">
         <v>80</v>
       </c>
       <c r="K5" t="s">
@@ -2492,7 +2492,7 @@
         <v>256</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6">
         <v>762</v>
@@ -2757,23 +2757,23 @@
       <c r="D7">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" t="s">
-        <v>80</v>
+      <c r="E7">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>48</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>33.9</v>
       </c>
       <c r="H7">
-        <v>48</v>
-      </c>
-      <c r="I7">
-        <v>33.9</v>
-      </c>
-      <c r="J7">
         <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
       </c>
       <c r="K7">
         <v>21</v>
@@ -2989,7 +2989,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="CD7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CE7" t="s">
         <v>80</v>
@@ -3009,7 +3009,7 @@
         <v>288</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8">
         <v>58</v>
@@ -3023,14 +3023,14 @@
       <c r="F8" t="s">
         <v>80</v>
       </c>
-      <c r="G8" t="s">
-        <v>80</v>
+      <c r="G8">
+        <v>36.200000000000003</v>
       </c>
       <c r="H8" t="s">
         <v>80</v>
       </c>
-      <c r="I8">
-        <v>36.200000000000003</v>
+      <c r="I8" t="s">
+        <v>80</v>
       </c>
       <c r="J8" t="s">
         <v>80</v>
@@ -3271,23 +3271,23 @@
       <c r="D9">
         <v>36</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9">
+        <v>24.7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9">
         <v>36</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9">
-        <v>24.7</v>
-      </c>
-      <c r="J9" t="s">
-        <v>80</v>
+      <c r="J9">
+        <v>1</v>
       </c>
       <c r="K9" t="s">
         <v>80</v>
@@ -3523,7 +3523,7 @@
         <v>312</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>27</v>
@@ -3531,23 +3531,23 @@
       <c r="D10">
         <v>133</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10">
         <v>133</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" t="s">
-        <v>80</v>
+      <c r="J10">
+        <v>1</v>
       </c>
       <c r="K10">
         <v>19</v>
@@ -3789,10 +3789,10 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G11">
         <v>24</v>
@@ -3801,10 +3801,10 @@
         <v>24</v>
       </c>
       <c r="I11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J11">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
         <v>80</v>
@@ -4040,7 +4040,7 @@
         <v>336</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12">
         <v>74</v>
@@ -4049,22 +4049,22 @@
         <v>74</v>
       </c>
       <c r="E12">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12">
+        <v>1.5</v>
+      </c>
+      <c r="I12">
         <v>74</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="H12">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
-        <v>80</v>
-      </c>
       <c r="J12">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>50</v>
@@ -4280,7 +4280,7 @@
         <v>0.69</v>
       </c>
       <c r="CD12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="CE12" t="s">
         <v>80</v>
@@ -4300,7 +4300,7 @@
         <v>342</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13">
         <v>1110</v>
@@ -4308,23 +4308,23 @@
       <c r="D13">
         <v>1110</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13">
         <v>1110</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13" t="s">
-        <v>80</v>
+      <c r="J13">
+        <v>1</v>
       </c>
       <c r="K13">
         <v>576</v>
@@ -4565,23 +4565,23 @@
       <c r="D14">
         <v>239</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>0.22</v>
+      </c>
+      <c r="I14">
         <v>239</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14">
-        <v>23</v>
-      </c>
       <c r="J14">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>52</v>
@@ -4817,7 +4817,7 @@
         <v>432</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15">
         <v>63</v>
@@ -4825,23 +4825,23 @@
       <c r="D15">
         <v>157</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15">
+        <v>30</v>
+      </c>
+      <c r="I15">
         <v>157</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" t="s">
-        <v>80</v>
-      </c>
       <c r="J15">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K15" t="s">
         <v>80</v>
@@ -5051,7 +5051,7 @@
         <v>80</v>
       </c>
       <c r="CD15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="CE15" t="s">
         <v>80</v>
@@ -5079,20 +5079,20 @@
       <c r="E16" t="s">
         <v>80</v>
       </c>
-      <c r="F16">
-        <v>1</v>
+      <c r="F16" t="s">
+        <v>80</v>
       </c>
       <c r="G16" t="s">
         <v>80</v>
       </c>
-      <c r="H16" t="s">
-        <v>80</v>
+      <c r="H16">
+        <v>32</v>
       </c>
       <c r="I16" t="s">
         <v>80</v>
       </c>
       <c r="J16">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="K16" t="s">
         <v>80</v>
@@ -5333,23 +5333,23 @@
       <c r="D17">
         <v>166</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17">
+        <v>32.9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17">
         <v>166</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17">
-        <v>32.9</v>
-      </c>
-      <c r="J17" t="s">
-        <v>80</v>
+      <c r="J17">
+        <v>1</v>
       </c>
       <c r="K17" t="s">
         <v>80</v>
@@ -5590,11 +5590,11 @@
       <c r="D18" t="s">
         <v>80</v>
       </c>
-      <c r="E18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" t="s">
-        <v>80</v>
+      <c r="E18">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>18</v>
       </c>
       <c r="G18">
         <v>18</v>
@@ -5602,11 +5602,11 @@
       <c r="H18">
         <v>18</v>
       </c>
-      <c r="I18">
-        <v>18</v>
-      </c>
-      <c r="J18">
-        <v>18</v>
+      <c r="I18" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" t="s">
+        <v>80</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -5847,23 +5847,23 @@
       <c r="D19">
         <v>381</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19">
+        <v>49.2</v>
+      </c>
+      <c r="I19">
         <v>286</v>
       </c>
-      <c r="F19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19">
-        <v>49.2</v>
+      <c r="J19" t="s">
+        <v>80</v>
       </c>
       <c r="K19">
         <v>237</v>
@@ -6079,7 +6079,7 @@
         <v>80</v>
       </c>
       <c r="CD19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CE19">
         <v>0</v>
@@ -6336,7 +6336,7 @@
         <v>80</v>
       </c>
       <c r="CD20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CE20" t="s">
         <v>80</v>

--- a/input/raw_data/data_extraction/series_data_end.xlsx
+++ b/input/raw_data/data_extraction/series_data_end.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D24FEA5-ACED-FA4B-B872-0E50068C8286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7D5BD7-B99B-A649-BCAF-470A40FCAAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="24420" xr2:uid="{0E2D75EA-57F1-7A41-B7A5-2B66F384E0FB}"/>
+    <workbookView xWindow="20560" yWindow="880" windowWidth="20580" windowHeight="12220" xr2:uid="{0E2D75EA-57F1-7A41-B7A5-2B66F384E0FB}"/>
   </bookViews>
   <sheets>
     <sheet name="series_data_end" sheetId="1" r:id="rId1"/>
@@ -1192,8 +1192,8 @@
   <dimension ref="A1:CH20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19:Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/input/raw_data/data_extraction/series_data_end.xlsx
+++ b/input/raw_data/data_extraction/series_data_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7D5BD7-B99B-A649-BCAF-470A40FCAAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF9042E-DC1A-7345-B257-961DFBA6DC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20580" windowHeight="12220" xr2:uid="{0E2D75EA-57F1-7A41-B7A5-2B66F384E0FB}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="105">
   <si>
     <t>Study_ID</t>
   </si>
@@ -319,6 +319,9 @@
     <t>metal spoon lodged in the duodenal cap with erosion into the duodenal wall</t>
   </si>
   <si>
+    <t>KU</t>
+  </si>
+  <si>
     <t>Local adverse events (superficial mucosal lesion or erythema) 94 (24.7), Major adverse event (requiring hospital admission) e 8 (2.1) a, Two or more in the same patient. bOf 286 FBIs verified with history, imaging, or endoscopy. cRetraction damage injuries: lower esophageal sphincter and mild oral bleeding. dSurgery performed for esophageal perforation, and an unfolded lid-can in the stomach. eBleedings [2], esophageal perforations [2], deep esophageal ulcer, systemic inflammatory response syndrome, aspiration, and allergic reaction.</t>
   </si>
   <si>
@@ -326,6 +329,12 @@
   </si>
   <si>
     <t>Is_Intentional_Rate</t>
+  </si>
+  <si>
+    <t>"Surgical findings were intraluminal FB in 21 (41.2%) patients, mucosal erosions in 14 (27.5%), and perforation or abscess in 16 (31.3%) patients. Operation was considered to be necessary in 45 (88.2%) patients at the time of surgery. In the 41 patients treated by laparotomy, a gastrotomy was required in 32 patients for retrieval of the ingested FB, a duodenotomy in 1 patient, an enterotomy in 8, and intestinal resection in 2 patients. Complications arose in 9 (17.6%) of the patients undergoing surgery and included wound sepsis in 4, pneumonia in 1, intra-abdominal sepsis in 1, intestinal fistula in 1, and intestinal obstruction in 2 patients. Mortality occurred in 1 (1.9%) patient from aorto-esophageal fistula, a 76 year old woman who had endoscopy showing massive bleeding of an unclear source"</t>
+  </si>
+  <si>
+    <t>"The most common motive for swallowing was suicidal ideation with command hallucinations, re ported by ten patients. Other pa tients' motives were recorded as suicidal ideation without command hallucinations (two patients), command hallucinations without sui cidal ideation (two patients), depres sion with a desire to harm but not kill themselves (two patients), and ma nipulation ofthe medicolegal system (three patients).</t>
   </si>
 </sst>
 </file>
@@ -1189,11 +1198,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECC6BD9-0A52-0246-BDA7-1FC0AB56AA9E}">
-  <dimension ref="A1:CH20"/>
+  <dimension ref="A1:CH23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19:Q20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1220,7 +1229,9 @@
     <col min="49" max="49" width="3.6640625" customWidth="1"/>
     <col min="50" max="53" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="67" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="67" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="69" max="79" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="4.1640625" bestFit="1" customWidth="1"/>
@@ -1282,7 +1293,7 @@
         <v>83</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>14</v>
@@ -6079,7 +6090,7 @@
         <v>80</v>
       </c>
       <c r="CD19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CE19">
         <v>0</v>
@@ -6336,18 +6347,792 @@
         <v>80</v>
       </c>
       <c r="CD20" t="s">
+        <v>101</v>
+      </c>
+      <c r="CE20" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF20" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>509</v>
+      </c>
+      <c r="C21">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" t="s">
+        <v>80</v>
+      </c>
+      <c r="M21" t="s">
+        <v>80</v>
+      </c>
+      <c r="N21" t="s">
+        <v>80</v>
+      </c>
+      <c r="O21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>80</v>
+      </c>
+      <c r="R21">
+        <v>0.61</v>
+      </c>
+      <c r="S21" t="s">
+        <v>80</v>
+      </c>
+      <c r="T21" t="s">
+        <v>80</v>
+      </c>
+      <c r="U21" t="s">
+        <v>80</v>
+      </c>
+      <c r="V21" t="s">
+        <v>80</v>
+      </c>
+      <c r="W21" t="s">
+        <v>80</v>
+      </c>
+      <c r="X21" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF21">
+        <v>0.02</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ21">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC21">
+        <v>0.75</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI21">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ21">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS21">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC21" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE21" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF21">
+        <v>0.224</v>
+      </c>
+      <c r="CG21" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH21">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>522</v>
+      </c>
+      <c r="C22">
+        <v>167</v>
+      </c>
+      <c r="D22">
+        <v>167</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>99</v>
+      </c>
+      <c r="G22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22">
+        <v>106</v>
+      </c>
+      <c r="L22">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="M22">
+        <v>61</v>
+      </c>
+      <c r="N22">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>80</v>
+      </c>
+      <c r="R22">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="S22">
+        <v>70</v>
+      </c>
+      <c r="T22">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="U22">
+        <v>10</v>
+      </c>
+      <c r="V22">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="W22" t="s">
+        <v>80</v>
+      </c>
+      <c r="X22" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA22">
+        <v>10</v>
+      </c>
+      <c r="AB22">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP22">
+        <v>1</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW22">
+        <v>167</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB22">
+        <v>75</v>
+      </c>
+      <c r="BC22">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF22">
+        <v>103</v>
+      </c>
+      <c r="BG22">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI22">
+        <v>0.3</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL22">
+        <v>92</v>
+      </c>
+      <c r="BM22">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="BN22" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO22" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP22">
         <v>100</v>
       </c>
-      <c r="CE20" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF20" t="s">
-        <v>80</v>
-      </c>
-      <c r="CG20" t="s">
-        <v>80</v>
-      </c>
-      <c r="CH20" t="s">
+      <c r="BQ22">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="BR22">
+        <v>51</v>
+      </c>
+      <c r="BS22">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="BT22">
+        <v>2</v>
+      </c>
+      <c r="BU22">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW22" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX22">
+        <v>16</v>
+      </c>
+      <c r="BY22" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ22">
+        <v>2</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB22">
+        <v>42</v>
+      </c>
+      <c r="CC22" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>103</v>
+      </c>
+      <c r="CE22">
+        <v>14</v>
+      </c>
+      <c r="CF22">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="CG22">
+        <v>14</v>
+      </c>
+      <c r="CH22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>523</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <v>40</v>
+      </c>
+      <c r="G23">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>19</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>80</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23" t="s">
+        <v>80</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>80</v>
+      </c>
+      <c r="X23" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA23">
+        <v>18</v>
+      </c>
+      <c r="AB23">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG23">
+        <v>4</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI23">
+        <v>3</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK23">
+        <v>12</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>99</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG23">
+        <v>1</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR23">
+        <v>5</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC23" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE23">
+        <v>14</v>
+      </c>
+      <c r="CF23" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG23" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH23" t="s">
         <v>80</v>
       </c>
     </row>

--- a/input/raw_data/data_extraction/series_data_end.xlsx
+++ b/input/raw_data/data_extraction/series_data_end.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF9042E-DC1A-7345-B257-961DFBA6DC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D63BA31-A1FC-D642-9CD2-C7D9A190FBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="880" windowWidth="20580" windowHeight="12220" xr2:uid="{0E2D75EA-57F1-7A41-B7A5-2B66F384E0FB}"/>
+    <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="12200" xr2:uid="{0E2D75EA-57F1-7A41-B7A5-2B66F384E0FB}"/>
   </bookViews>
   <sheets>
     <sheet name="series_data_end" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="106">
   <si>
     <t>Study_ID</t>
   </si>
@@ -319,9 +319,6 @@
     <t>metal spoon lodged in the duodenal cap with erosion into the duodenal wall</t>
   </si>
   <si>
-    <t>KU</t>
-  </si>
-  <si>
     <t>Local adverse events (superficial mucosal lesion or erythema) 94 (24.7), Major adverse event (requiring hospital admission) e 8 (2.1) a, Two or more in the same patient. bOf 286 FBIs verified with history, imaging, or endoscopy. cRetraction damage injuries: lower esophageal sphincter and mild oral bleeding. dSurgery performed for esophageal perforation, and an unfolded lid-can in the stomach. eBleedings [2], esophageal perforations [2], deep esophageal ulcer, systemic inflammatory response syndrome, aspiration, and allergic reaction.</t>
   </si>
   <si>
@@ -335,6 +332,12 @@
   </si>
   <si>
     <t>"The most common motive for swallowing was suicidal ideation with command hallucinations, re ported by ten patients. Other pa tients' motives were recorded as suicidal ideation without command hallucinations (two patients), command hallucinations without sui cidal ideation (two patients), depres sion with a desire to harm but not kill themselves (two patients), and ma nipulation ofthe medicolegal system (three patients).</t>
+  </si>
+  <si>
+    <t>"In summary, the foreign objects in prisoners were a variety of unusual things because of the prison environment and the secondary gains of the prisoners"</t>
+  </si>
+  <si>
+    <t>"Complications after endoscopic removal were esophageal lacerations (four cases), esophageal perforation (one case) and acute hemorrhagic gastritis (one case)"</t>
   </si>
 </sst>
 </file>
@@ -1198,11 +1201,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECC6BD9-0A52-0246-BDA7-1FC0AB56AA9E}">
-  <dimension ref="A1:CH23"/>
+  <dimension ref="A1:CH27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1293,7 +1296,7 @@
         <v>83</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>14</v>
@@ -6090,7 +6093,7 @@
         <v>80</v>
       </c>
       <c r="CD19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CE19">
         <v>0</v>
@@ -6347,7 +6350,7 @@
         <v>80</v>
       </c>
       <c r="CD20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CE20" t="s">
         <v>80</v>
@@ -6861,7 +6864,7 @@
         <v>80</v>
       </c>
       <c r="CD22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="CE22">
         <v>14</v>
@@ -6881,7 +6884,7 @@
         <v>523</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23">
         <v>19</v>
@@ -7046,7 +7049,7 @@
         <v>80</v>
       </c>
       <c r="BE23" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="BF23" t="s">
         <v>80</v>
@@ -7133,6 +7136,1031 @@
         <v>80</v>
       </c>
       <c r="CH23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>553</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>75</v>
+      </c>
+      <c r="E24">
+        <v>19</v>
+      </c>
+      <c r="F24">
+        <v>47</v>
+      </c>
+      <c r="G24">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24">
+        <v>75</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>75</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>80</v>
+      </c>
+      <c r="R24" t="s">
+        <v>80</v>
+      </c>
+      <c r="S24">
+        <v>75</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>80</v>
+      </c>
+      <c r="X24" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA24">
+        <v>75</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF24">
+        <v>0.64</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO24">
+        <v>75</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW24">
+        <v>256</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ24">
+        <v>0.63</v>
+      </c>
+      <c r="BR24">
+        <v>9</v>
+      </c>
+      <c r="BS24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT24">
+        <v>0</v>
+      </c>
+      <c r="BU24">
+        <v>0</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX24">
+        <v>2</v>
+      </c>
+      <c r="BY24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB24">
+        <v>4</v>
+      </c>
+      <c r="CC24" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD24" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE24">
+        <v>22</v>
+      </c>
+      <c r="CF24" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG24">
+        <v>3</v>
+      </c>
+      <c r="CH24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>546</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25">
+        <v>414</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>84</v>
+      </c>
+      <c r="G25">
+        <v>40.6</v>
+      </c>
+      <c r="I25">
+        <v>270</v>
+      </c>
+      <c r="J25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25">
+        <v>233</v>
+      </c>
+      <c r="L25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M25">
+        <v>181</v>
+      </c>
+      <c r="N25" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12</v>
+      </c>
+      <c r="R25">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="S25" t="s">
+        <v>80</v>
+      </c>
+      <c r="T25" t="s">
+        <v>80</v>
+      </c>
+      <c r="U25" t="s">
+        <v>80</v>
+      </c>
+      <c r="V25" t="s">
+        <v>80</v>
+      </c>
+      <c r="W25" t="s">
+        <v>80</v>
+      </c>
+      <c r="X25" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP25">
+        <v>1</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP25">
+        <v>419</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR25">
+        <v>3</v>
+      </c>
+      <c r="BS25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT25">
+        <v>0</v>
+      </c>
+      <c r="BU25">
+        <v>0</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA25" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB25" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC25" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD25" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE25" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF25" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG25">
+        <v>3</v>
+      </c>
+      <c r="CH25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>570</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26">
+        <v>59</v>
+      </c>
+      <c r="E26">
+        <v>28</v>
+      </c>
+      <c r="F26">
+        <v>84</v>
+      </c>
+      <c r="G26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26">
+        <v>58</v>
+      </c>
+      <c r="I26">
+        <v>59</v>
+      </c>
+      <c r="J26" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26">
+        <v>37</v>
+      </c>
+      <c r="L26" t="s">
+        <v>80</v>
+      </c>
+      <c r="M26">
+        <v>22</v>
+      </c>
+      <c r="N26" t="s">
+        <v>80</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26" t="s">
+        <v>80</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>80</v>
+      </c>
+      <c r="X26" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>59</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>1</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF26">
+        <v>55</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK26">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP26">
+        <v>0</v>
+      </c>
+      <c r="BQ26">
+        <v>0</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS26">
+        <v>1</v>
+      </c>
+      <c r="BT26">
+        <v>3</v>
+      </c>
+      <c r="BU26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BV26">
+        <v>44</v>
+      </c>
+      <c r="BW26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX26">
+        <v>44</v>
+      </c>
+      <c r="BY26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ26" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA26" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB26" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC26" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD26" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE26">
+        <v>0</v>
+      </c>
+      <c r="CF26">
+        <v>0</v>
+      </c>
+      <c r="CG26" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>581</v>
+      </c>
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27">
+        <v>33</v>
+      </c>
+      <c r="D27">
+        <v>52</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="H27">
+        <v>35</v>
+      </c>
+      <c r="I27" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>80</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>80</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>80</v>
+      </c>
+      <c r="R27">
+        <v>0.97</v>
+      </c>
+      <c r="S27" t="s">
+        <v>80</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>80</v>
+      </c>
+      <c r="X27" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB27">
+        <v>0.182</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ27">
+        <v>0.97</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC27">
+        <v>0.97</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF27">
+        <v>33</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH27">
+        <v>24</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM27">
+        <v>0.03</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP27">
+        <v>46</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR27">
+        <v>6</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT27">
+        <v>0</v>
+      </c>
+      <c r="BU27">
+        <v>0</v>
+      </c>
+      <c r="BV27">
+        <v>6</v>
+      </c>
+      <c r="BW27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX27">
+        <v>1</v>
+      </c>
+      <c r="BY27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ27" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA27" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB27">
+        <v>5</v>
+      </c>
+      <c r="CC27" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD27" t="s">
+        <v>105</v>
+      </c>
+      <c r="CE27">
+        <v>0</v>
+      </c>
+      <c r="CF27">
+        <v>0</v>
+      </c>
+      <c r="CG27">
+        <v>1</v>
+      </c>
+      <c r="CH27" t="s">
         <v>80</v>
       </c>
     </row>

--- a/input/raw_data/data_extraction/series_data_end.xlsx
+++ b/input/raw_data/data_extraction/series_data_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D63BA31-A1FC-D642-9CD2-C7D9A190FBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9F2F1F-529E-884A-85D1-58F6CB896624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="12200" xr2:uid="{0E2D75EA-57F1-7A41-B7A5-2B66F384E0FB}"/>
   </bookViews>
@@ -1204,8 +1204,8 @@
   <dimension ref="A1:CH27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/input/raw_data/data_extraction/series_data_end.xlsx
+++ b/input/raw_data/data_extraction/series_data_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9F2F1F-529E-884A-85D1-58F6CB896624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE3AA94-BE33-4D48-AC55-2ED9980292C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="12200" xr2:uid="{0E2D75EA-57F1-7A41-B7A5-2B66F384E0FB}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="107">
   <si>
     <t>Study_ID</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>"Complications after endoscopic removal were esophageal lacerations (four cases), esophageal perforation (one case) and acute hemorrhagic gastritis (one case)"</t>
+  </si>
+  <si>
+    <t>"Medical complications included respiratory insufficiency in 12 cases, cardiac insufficiency in four, respiratory infection in three, acute renal failure in two, cardiac arrhythmia in one, acute gout in one, reactive depression in one, diabetic decompensation in one, acute pulmonary oedema in one and ventriculitis in one.", "Surgical complications included wound infection in nine cases (debridement and local treatment), paralytic ileus in six, intra-abdominal abscess in two (percutaneous drainage), partial dehiscence of the colostomy in two, perineal abscess in one (surgical drainage), cellulitis in one, evisceration in one (repaired with mesh) and haemoperitoneum in one (laparotomy and haemostasis)."</t>
   </si>
 </sst>
 </file>
@@ -1201,11 +1204,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECC6BD9-0A52-0246-BDA7-1FC0AB56AA9E}">
-  <dimension ref="A1:CH27"/>
+  <dimension ref="A1:CH28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27:L27"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8164,6 +8167,263 @@
         <v>80</v>
       </c>
     </row>
+    <row r="28" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>588</v>
+      </c>
+      <c r="C28">
+        <v>33</v>
+      </c>
+      <c r="D28">
+        <v>33</v>
+      </c>
+      <c r="E28">
+        <v>19</v>
+      </c>
+      <c r="F28">
+        <v>96</v>
+      </c>
+      <c r="G28">
+        <v>64</v>
+      </c>
+      <c r="H28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>80</v>
+      </c>
+      <c r="L28">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="M28" t="s">
+        <v>80</v>
+      </c>
+      <c r="N28">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="O28" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>80</v>
+      </c>
+      <c r="R28">
+        <v>0.121</v>
+      </c>
+      <c r="S28" t="s">
+        <v>80</v>
+      </c>
+      <c r="T28" t="s">
+        <v>80</v>
+      </c>
+      <c r="U28" t="s">
+        <v>80</v>
+      </c>
+      <c r="V28" t="s">
+        <v>80</v>
+      </c>
+      <c r="W28" t="s">
+        <v>80</v>
+      </c>
+      <c r="X28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z28">
+        <v>0.121</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB28">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>1</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW28">
+        <v>33</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC28">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE28">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG28">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK28">
+        <v>0.121</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM28">
+        <v>0.879</v>
+      </c>
+      <c r="BN28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO28">
+        <v>0.81818181820000002</v>
+      </c>
+      <c r="BP28">
+        <v>0</v>
+      </c>
+      <c r="BQ28">
+        <v>0</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS28">
+        <v>1</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BU28">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="BV28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW28">
+        <v>1</v>
+      </c>
+      <c r="BX28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY28">
+        <v>1</v>
+      </c>
+      <c r="BZ28" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA28" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB28" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC28">
+        <v>0.4545454545</v>
+      </c>
+      <c r="CD28" t="s">
+        <v>106</v>
+      </c>
+      <c r="CE28">
+        <v>0</v>
+      </c>
+      <c r="CF28">
+        <v>0</v>
+      </c>
+      <c r="CG28">
+        <v>0</v>
+      </c>
+      <c r="CH28">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/input/raw_data/data_extraction/series_data_end.xlsx
+++ b/input/raw_data/data_extraction/series_data_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE3AA94-BE33-4D48-AC55-2ED9980292C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37AAACC-F887-A34B-9D6C-E2E4E7C84149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="12200" xr2:uid="{0E2D75EA-57F1-7A41-B7A5-2B66F384E0FB}"/>
   </bookViews>

--- a/input/raw_data/data_extraction/series_data_end.xlsx
+++ b/input/raw_data/data_extraction/series_data_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37AAACC-F887-A34B-9D6C-E2E4E7C84149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14BCE8F-474C-2B4C-AECC-643C6B727427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="12200" xr2:uid="{0E2D75EA-57F1-7A41-B7A5-2B66F384E0FB}"/>
   </bookViews>

--- a/input/raw_data/data_extraction/series_data_end.xlsx
+++ b/input/raw_data/data_extraction/series_data_end.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14BCE8F-474C-2B4C-AECC-643C6B727427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612D9A94-DABB-1745-925C-A66E632D9B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="12200" xr2:uid="{0E2D75EA-57F1-7A41-B7A5-2B66F384E0FB}"/>
+    <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="12220" xr2:uid="{0E2D75EA-57F1-7A41-B7A5-2B66F384E0FB}"/>
   </bookViews>
   <sheets>
     <sheet name="series_data_end" sheetId="1" r:id="rId1"/>
@@ -1208,7 +1208,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/input/raw_data/data_extraction/series_data_end.xlsx
+++ b/input/raw_data/data_extraction/series_data_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612D9A94-DABB-1745-925C-A66E632D9B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC74A7C-6050-5B49-AC3B-37AF908385E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="12220" xr2:uid="{0E2D75EA-57F1-7A41-B7A5-2B66F384E0FB}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="110">
   <si>
     <t>Study_ID</t>
   </si>
@@ -341,6 +341,15 @@
   </si>
   <si>
     <t>"Medical complications included respiratory insufficiency in 12 cases, cardiac insufficiency in four, respiratory infection in three, acute renal failure in two, cardiac arrhythmia in one, acute gout in one, reactive depression in one, diabetic decompensation in one, acute pulmonary oedema in one and ventriculitis in one.", "Surgical complications included wound infection in nine cases (debridement and local treatment), paralytic ileus in six, intra-abdominal abscess in two (percutaneous drainage), partial dehiscence of the colostomy in two, perineal abscess in one (surgical drainage), cellulitis in one, evisceration in one (repaired with mesh) and haemoperitoneum in one (laparotomy and haemostasis)."</t>
+  </si>
+  <si>
+    <t>pneumo-mediastinum in 2 cases</t>
+  </si>
+  <si>
+    <t>Complications were found in 105 patients (17.9%), including mucosal abrasion or erosion (n=60, 10.2%), laceration (n=8, 1.4%), deep ulceration (n=17, 2.9%), and perforation (n=20, 3.4%). Major complications, such as laceration, deep ulceration, and perforation, occurred in 45 patients (7.7%)</t>
+  </si>
+  <si>
+    <t>12 complications. No other informatin.</t>
   </si>
 </sst>
 </file>
@@ -1204,17 +1213,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECC6BD9-0A52-0246-BDA7-1FC0AB56AA9E}">
-  <dimension ref="A1:CH28"/>
+  <dimension ref="A1:CH33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="4.1640625" customWidth="1"/>
     <col min="11" max="13" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.6640625" bestFit="1" customWidth="1"/>
@@ -1237,7 +1248,9 @@
     <col min="54" max="54" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="55" max="57" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="59" max="67" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="67" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="69" max="79" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="4.1640625" bestFit="1" customWidth="1"/>
@@ -8424,6 +8437,1291 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>646</v>
+      </c>
+      <c r="C29">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>19</v>
+      </c>
+      <c r="E29">
+        <v>19</v>
+      </c>
+      <c r="F29">
+        <v>27</v>
+      </c>
+      <c r="G29">
+        <v>24</v>
+      </c>
+      <c r="H29" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>80</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>80</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29" t="s">
+        <v>80</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>80</v>
+      </c>
+      <c r="X29" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB29">
+        <v>0.125</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE29">
+        <v>2</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG29">
+        <v>2</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI29">
+        <v>17</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG29">
+        <v>1</v>
+      </c>
+      <c r="BH29">
+        <v>1</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ29">
+        <v>0</v>
+      </c>
+      <c r="BK29">
+        <v>0</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM29">
+        <v>1</v>
+      </c>
+      <c r="BN29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO29">
+        <v>1</v>
+      </c>
+      <c r="BP29">
+        <v>1</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR29">
+        <v>4</v>
+      </c>
+      <c r="BS29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT29">
+        <v>1</v>
+      </c>
+      <c r="BU29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX29">
+        <v>1</v>
+      </c>
+      <c r="BY29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ29">
+        <v>1</v>
+      </c>
+      <c r="CA29" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB29">
+        <v>2</v>
+      </c>
+      <c r="CC29" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD29" t="s">
+        <v>107</v>
+      </c>
+      <c r="CE29">
+        <v>15</v>
+      </c>
+      <c r="CF29" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG29">
+        <v>1</v>
+      </c>
+      <c r="CH29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>647</v>
+      </c>
+      <c r="C30">
+        <v>67</v>
+      </c>
+      <c r="D30">
+        <v>67</v>
+      </c>
+      <c r="E30">
+        <v>19</v>
+      </c>
+      <c r="F30">
+        <v>62</v>
+      </c>
+      <c r="G30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30">
+        <v>53</v>
+      </c>
+      <c r="I30">
+        <v>67</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>50</v>
+      </c>
+      <c r="L30" t="s">
+        <v>80</v>
+      </c>
+      <c r="M30">
+        <v>17</v>
+      </c>
+      <c r="N30" t="s">
+        <v>80</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>17</v>
+      </c>
+      <c r="R30">
+        <v>0.253</v>
+      </c>
+      <c r="S30" t="s">
+        <v>80</v>
+      </c>
+      <c r="T30" t="s">
+        <v>80</v>
+      </c>
+      <c r="U30" t="s">
+        <v>80</v>
+      </c>
+      <c r="V30" t="s">
+        <v>80</v>
+      </c>
+      <c r="W30" t="s">
+        <v>80</v>
+      </c>
+      <c r="X30" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE30">
+        <v>6</v>
+      </c>
+      <c r="AF30">
+        <v>0.09</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP30">
+        <v>1</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX30">
+        <v>8</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF30">
+        <v>22</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP30">
+        <v>67</v>
+      </c>
+      <c r="BQ30">
+        <v>1</v>
+      </c>
+      <c r="BR30">
+        <v>0</v>
+      </c>
+      <c r="BS30">
+        <v>0</v>
+      </c>
+      <c r="BT30">
+        <v>0</v>
+      </c>
+      <c r="BU30">
+        <v>0</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ30" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA30" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB30" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC30" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD30" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE30">
+        <v>0</v>
+      </c>
+      <c r="CF30">
+        <v>0</v>
+      </c>
+      <c r="CG30">
+        <v>0</v>
+      </c>
+      <c r="CH30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>679</v>
+      </c>
+      <c r="C31">
+        <v>586</v>
+      </c>
+      <c r="D31">
+        <v>586</v>
+      </c>
+      <c r="E31">
+        <v>17</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31">
+        <v>57</v>
+      </c>
+      <c r="I31" t="s">
+        <v>80</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>80</v>
+      </c>
+      <c r="L31">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="M31" t="s">
+        <v>80</v>
+      </c>
+      <c r="N31">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>53</v>
+      </c>
+      <c r="R31">
+        <v>0.09</v>
+      </c>
+      <c r="S31">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s">
+        <v>80</v>
+      </c>
+      <c r="U31" t="s">
+        <v>80</v>
+      </c>
+      <c r="V31" t="s">
+        <v>80</v>
+      </c>
+      <c r="W31" t="s">
+        <v>80</v>
+      </c>
+      <c r="X31" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA31">
+        <v>16</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP31">
+        <v>1</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB31">
+        <v>23</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF31">
+        <v>500</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH31">
+        <v>10</v>
+      </c>
+      <c r="BI31">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP31">
+        <v>586</v>
+      </c>
+      <c r="BQ31">
+        <v>1</v>
+      </c>
+      <c r="BR31">
+        <v>4</v>
+      </c>
+      <c r="BS31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT31">
+        <v>0</v>
+      </c>
+      <c r="BU31">
+        <v>0</v>
+      </c>
+      <c r="BV31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX31">
+        <v>20</v>
+      </c>
+      <c r="BY31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ31" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA31" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB31">
+        <v>105</v>
+      </c>
+      <c r="CC31" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD31" t="s">
+        <v>108</v>
+      </c>
+      <c r="CE31">
+        <v>0</v>
+      </c>
+      <c r="CF31">
+        <v>0</v>
+      </c>
+      <c r="CG31">
+        <v>4</v>
+      </c>
+      <c r="CH31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>682</v>
+      </c>
+      <c r="C32">
+        <v>77</v>
+      </c>
+      <c r="D32">
+        <v>77</v>
+      </c>
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32">
+        <v>77</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>49</v>
+      </c>
+      <c r="L32">
+        <v>0.64</v>
+      </c>
+      <c r="M32">
+        <v>28</v>
+      </c>
+      <c r="N32">
+        <v>0.36</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>20</v>
+      </c>
+      <c r="R32">
+        <v>26</v>
+      </c>
+      <c r="S32" t="s">
+        <v>80</v>
+      </c>
+      <c r="T32" t="s">
+        <v>80</v>
+      </c>
+      <c r="U32" t="s">
+        <v>80</v>
+      </c>
+      <c r="V32" t="s">
+        <v>80</v>
+      </c>
+      <c r="W32" t="s">
+        <v>80</v>
+      </c>
+      <c r="X32" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA32">
+        <v>25</v>
+      </c>
+      <c r="AB32">
+        <v>0.32</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP32">
+        <v>1</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF32">
+        <v>49</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ32">
+        <v>1</v>
+      </c>
+      <c r="BR32">
+        <v>0</v>
+      </c>
+      <c r="BS32">
+        <v>0</v>
+      </c>
+      <c r="BT32">
+        <v>0</v>
+      </c>
+      <c r="BU32">
+        <v>0</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB32">
+        <v>12</v>
+      </c>
+      <c r="CC32">
+        <v>0.16</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>109</v>
+      </c>
+      <c r="CE32">
+        <v>0</v>
+      </c>
+      <c r="CF32">
+        <v>0</v>
+      </c>
+      <c r="CG32">
+        <v>0</v>
+      </c>
+      <c r="CH32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>687</v>
+      </c>
+      <c r="C33">
+        <v>26</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33">
+        <v>36</v>
+      </c>
+      <c r="I33">
+        <v>32</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L33">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M33" t="s">
+        <v>80</v>
+      </c>
+      <c r="N33">
+        <v>0.42</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>17</v>
+      </c>
+      <c r="R33">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33" t="s">
+        <v>80</v>
+      </c>
+      <c r="V33" t="s">
+        <v>80</v>
+      </c>
+      <c r="W33" t="s">
+        <v>80</v>
+      </c>
+      <c r="X33" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB33">
+        <v>0.35</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP33">
+        <v>1</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>3</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD33">
+        <v>13</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF33">
+        <v>19</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ33">
+        <v>3</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL33">
+        <v>29</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN33">
+        <v>16</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP33">
+        <v>16</v>
+      </c>
+      <c r="BQ33">
+        <v>0.5</v>
+      </c>
+      <c r="BR33">
+        <v>0</v>
+      </c>
+      <c r="BS33">
+        <v>0</v>
+      </c>
+      <c r="BT33">
+        <v>0</v>
+      </c>
+      <c r="BU33">
+        <v>0</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX33">
+        <v>0</v>
+      </c>
+      <c r="BY33">
+        <v>0</v>
+      </c>
+      <c r="BZ33">
+        <v>0</v>
+      </c>
+      <c r="CA33">
+        <v>0</v>
+      </c>
+      <c r="CB33">
+        <v>0</v>
+      </c>
+      <c r="CC33">
+        <v>0</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE33">
+        <v>16</v>
+      </c>
+      <c r="CF33">
+        <v>0.5</v>
+      </c>
+      <c r="CG33">
+        <v>0</v>
+      </c>
+      <c r="CH33">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/input/raw_data/data_extraction/series_data_end.xlsx
+++ b/input/raw_data/data_extraction/series_data_end.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC74A7C-6050-5B49-AC3B-37AF908385E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A6A3DA-72A0-5849-8D92-DF8349A7C722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="12220" xr2:uid="{0E2D75EA-57F1-7A41-B7A5-2B66F384E0FB}"/>
   </bookViews>
@@ -1216,8 +1216,8 @@
   <dimension ref="A1:CH33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/input/raw_data/data_extraction/series_data_end.xlsx
+++ b/input/raw_data/data_extraction/series_data_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A6A3DA-72A0-5849-8D92-DF8349A7C722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723AA070-6EFE-5B49-9691-902A5C138039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="12220" xr2:uid="{0E2D75EA-57F1-7A41-B7A5-2B66F384E0FB}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="110">
   <si>
     <t>Study_ID</t>
   </si>
@@ -1213,11 +1213,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECC6BD9-0A52-0246-BDA7-1FC0AB56AA9E}">
-  <dimension ref="A1:CH33"/>
+  <dimension ref="A1:CH32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5612,43 +5612,43 @@
     </row>
     <row r="18" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18">
-        <v>18</v>
-      </c>
-      <c r="F18">
-        <v>18</v>
-      </c>
-      <c r="G18">
-        <v>18</v>
+        <v>341</v>
+      </c>
+      <c r="D18">
+        <v>381</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
+        <v>80</v>
       </c>
       <c r="H18">
-        <v>18</v>
-      </c>
-      <c r="I18" t="s">
-        <v>80</v>
+        <v>49.2</v>
+      </c>
+      <c r="I18">
+        <v>286</v>
       </c>
       <c r="J18" t="s">
         <v>80</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>80</v>
+        <v>0.622</v>
+      </c>
+      <c r="M18">
+        <v>144</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.378</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -5656,17 +5656,17 @@
       <c r="P18">
         <v>0</v>
       </c>
-      <c r="Q18" t="s">
-        <v>80</v>
+      <c r="Q18">
+        <v>57</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0.154</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>0.158</v>
       </c>
       <c r="U18" t="s">
         <v>80</v>
@@ -5686,23 +5686,23 @@
       <c r="Z18" t="s">
         <v>80</v>
       </c>
-      <c r="AA18" t="s">
-        <v>80</v>
+      <c r="AA18">
+        <v>36</v>
       </c>
       <c r="AB18">
-        <v>1</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>80</v>
       </c>
       <c r="AE18" t="s">
         <v>80</v>
       </c>
-      <c r="AF18">
-        <v>1</v>
+      <c r="AF18" t="s">
+        <v>80</v>
       </c>
       <c r="AG18" t="s">
         <v>80</v>
@@ -5719,8 +5719,8 @@
       <c r="AK18" t="s">
         <v>80</v>
       </c>
-      <c r="AL18">
-        <v>1</v>
+      <c r="AL18" t="s">
+        <v>80</v>
       </c>
       <c r="AM18" t="s">
         <v>80</v>
@@ -5729,49 +5729,49 @@
         <v>80</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>80</v>
       </c>
       <c r="AW18">
-        <v>10</v>
-      </c>
-      <c r="AX18">
-        <v>0</v>
+        <v>385</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>80</v>
       </c>
       <c r="AY18">
-        <v>0</v>
-      </c>
-      <c r="AZ18">
-        <v>0</v>
-      </c>
-      <c r="BA18">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>80</v>
       </c>
       <c r="BB18" t="s">
         <v>80</v>
       </c>
       <c r="BC18">
-        <v>0.6</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="BD18" t="s">
         <v>80</v>
@@ -5779,11 +5779,11 @@
       <c r="BE18" t="s">
         <v>80</v>
       </c>
-      <c r="BF18">
-        <v>0</v>
+      <c r="BF18" t="s">
+        <v>80</v>
       </c>
       <c r="BG18">
-        <v>0</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="BH18" t="s">
         <v>80</v>
@@ -5791,35 +5791,35 @@
       <c r="BI18" t="s">
         <v>80</v>
       </c>
-      <c r="BJ18">
-        <v>0</v>
-      </c>
-      <c r="BK18">
-        <v>0</v>
+      <c r="BJ18" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>80</v>
       </c>
       <c r="BL18" t="s">
         <v>80</v>
       </c>
       <c r="BM18">
-        <v>0.4</v>
-      </c>
-      <c r="BN18">
-        <v>0</v>
-      </c>
-      <c r="BO18">
-        <v>0</v>
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>80</v>
       </c>
       <c r="BP18">
-        <v>8</v>
+        <v>381</v>
       </c>
       <c r="BQ18">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="BR18">
-        <v>1</v>
-      </c>
-      <c r="BS18">
-        <v>0.1</v>
+        <v>2</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>80</v>
       </c>
       <c r="BT18">
         <v>0</v>
@@ -5833,8 +5833,8 @@
       <c r="BW18" t="s">
         <v>80</v>
       </c>
-      <c r="BX18" t="s">
-        <v>80</v>
+      <c r="BX18">
+        <v>3</v>
       </c>
       <c r="BY18" t="s">
         <v>80</v>
@@ -5845,23 +5845,23 @@
       <c r="CA18" t="s">
         <v>80</v>
       </c>
-      <c r="CB18" t="s">
-        <v>80</v>
+      <c r="CB18">
+        <v>102</v>
       </c>
       <c r="CC18" t="s">
         <v>80</v>
       </c>
       <c r="CD18" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE18" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF18" t="s">
-        <v>80</v>
-      </c>
-      <c r="CG18" t="s">
-        <v>80</v>
+        <v>99</v>
+      </c>
+      <c r="CE18">
+        <v>0</v>
+      </c>
+      <c r="CF18">
+        <v>0</v>
+      </c>
+      <c r="CG18">
+        <v>2</v>
       </c>
       <c r="CH18" t="s">
         <v>80</v>
@@ -5869,13 +5869,13 @@
     </row>
     <row r="19" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="C19">
-        <v>341</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>381</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
         <v>80</v>
@@ -5886,44 +5886,44 @@
       <c r="G19" t="s">
         <v>80</v>
       </c>
-      <c r="H19">
-        <v>49.2</v>
-      </c>
-      <c r="I19">
-        <v>286</v>
+      <c r="H19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" t="s">
+        <v>80</v>
       </c>
       <c r="J19" t="s">
         <v>80</v>
       </c>
-      <c r="K19">
-        <v>237</v>
-      </c>
-      <c r="L19">
-        <v>0.622</v>
-      </c>
-      <c r="M19">
-        <v>144</v>
-      </c>
-      <c r="N19">
-        <v>0.378</v>
+      <c r="K19" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19" t="s">
+        <v>80</v>
+      </c>
+      <c r="N19" t="s">
+        <v>80</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R19">
-        <v>0.154</v>
-      </c>
-      <c r="S19">
-        <v>54</v>
-      </c>
-      <c r="T19">
-        <v>0.158</v>
+        <v>1</v>
+      </c>
+      <c r="S19" t="s">
+        <v>80</v>
+      </c>
+      <c r="T19" t="s">
+        <v>80</v>
       </c>
       <c r="U19" t="s">
         <v>80</v>
@@ -5943,11 +5943,11 @@
       <c r="Z19" t="s">
         <v>80</v>
       </c>
-      <c r="AA19">
-        <v>36</v>
-      </c>
-      <c r="AB19">
-        <v>9.5000000000000001E-2</v>
+      <c r="AA19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>80</v>
       </c>
       <c r="AC19" t="s">
         <v>80</v>
@@ -5985,11 +5985,11 @@
       <c r="AN19" t="s">
         <v>80</v>
       </c>
-      <c r="AO19">
-        <v>381</v>
-      </c>
-      <c r="AP19">
-        <v>1</v>
+      <c r="AO19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>80</v>
       </c>
       <c r="AQ19" t="s">
         <v>80</v>
@@ -6009,14 +6009,14 @@
       <c r="AV19" t="s">
         <v>80</v>
       </c>
-      <c r="AW19">
-        <v>385</v>
+      <c r="AW19" t="s">
+        <v>80</v>
       </c>
       <c r="AX19" t="s">
         <v>80</v>
       </c>
-      <c r="AY19">
-        <v>1.7999999999999999E-2</v>
+      <c r="AY19" t="s">
+        <v>80</v>
       </c>
       <c r="AZ19" t="s">
         <v>80</v>
@@ -6027,8 +6027,8 @@
       <c r="BB19" t="s">
         <v>80</v>
       </c>
-      <c r="BC19">
-        <v>1.2999999999999999E-2</v>
+      <c r="BC19" t="s">
+        <v>80</v>
       </c>
       <c r="BD19" t="s">
         <v>80</v>
@@ -6039,8 +6039,8 @@
       <c r="BF19" t="s">
         <v>80</v>
       </c>
-      <c r="BG19">
-        <v>0.40500000000000003</v>
+      <c r="BG19" t="s">
+        <v>80</v>
       </c>
       <c r="BH19" t="s">
         <v>80</v>
@@ -6057,8 +6057,8 @@
       <c r="BL19" t="s">
         <v>80</v>
       </c>
-      <c r="BM19">
-        <v>0.98699999999999999</v>
+      <c r="BM19" t="s">
+        <v>80</v>
       </c>
       <c r="BN19" t="s">
         <v>80</v>
@@ -6067,22 +6067,22 @@
         <v>80</v>
       </c>
       <c r="BP19">
-        <v>381</v>
-      </c>
-      <c r="BQ19">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>80</v>
       </c>
       <c r="BR19">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BS19" t="s">
         <v>80</v>
       </c>
-      <c r="BT19">
-        <v>0</v>
-      </c>
-      <c r="BU19">
-        <v>0</v>
+      <c r="BT19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>80</v>
       </c>
       <c r="BV19" t="s">
         <v>80</v>
@@ -6090,8 +6090,8 @@
       <c r="BW19" t="s">
         <v>80</v>
       </c>
-      <c r="BX19">
-        <v>3</v>
+      <c r="BX19" t="s">
+        <v>80</v>
       </c>
       <c r="BY19" t="s">
         <v>80</v>
@@ -6102,23 +6102,23 @@
       <c r="CA19" t="s">
         <v>80</v>
       </c>
-      <c r="CB19">
-        <v>102</v>
+      <c r="CB19" t="s">
+        <v>80</v>
       </c>
       <c r="CC19" t="s">
         <v>80</v>
       </c>
       <c r="CD19" t="s">
-        <v>99</v>
-      </c>
-      <c r="CE19">
-        <v>0</v>
-      </c>
-      <c r="CF19">
-        <v>0</v>
-      </c>
-      <c r="CG19">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>80</v>
       </c>
       <c r="CH19" t="s">
         <v>80</v>
@@ -6126,19 +6126,19 @@
     </row>
     <row r="20" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>461</v>
+        <v>509</v>
       </c>
       <c r="C20">
-        <v>8</v>
-      </c>
-      <c r="D20">
-        <v>52</v>
-      </c>
-      <c r="E20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" t="s">
-        <v>80</v>
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>56</v>
       </c>
       <c r="G20" t="s">
         <v>80</v>
@@ -6149,8 +6149,8 @@
       <c r="I20" t="s">
         <v>80</v>
       </c>
-      <c r="J20" t="s">
-        <v>80</v>
+      <c r="J20">
+        <v>1</v>
       </c>
       <c r="K20" t="s">
         <v>80</v>
@@ -6164,17 +6164,17 @@
       <c r="N20" t="s">
         <v>80</v>
       </c>
-      <c r="O20">
-        <v>52</v>
+      <c r="O20" t="s">
+        <v>80</v>
       </c>
       <c r="P20">
         <v>1</v>
       </c>
-      <c r="Q20">
-        <v>52</v>
+      <c r="Q20" t="s">
+        <v>80</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="S20" t="s">
         <v>80</v>
@@ -6215,8 +6215,8 @@
       <c r="AE20" t="s">
         <v>80</v>
       </c>
-      <c r="AF20" t="s">
-        <v>80</v>
+      <c r="AF20">
+        <v>0.02</v>
       </c>
       <c r="AG20" t="s">
         <v>80</v>
@@ -6227,8 +6227,8 @@
       <c r="AI20" t="s">
         <v>80</v>
       </c>
-      <c r="AJ20" t="s">
-        <v>80</v>
+      <c r="AJ20">
+        <v>0.44900000000000001</v>
       </c>
       <c r="AK20" t="s">
         <v>80</v>
@@ -6242,11 +6242,11 @@
       <c r="AN20" t="s">
         <v>80</v>
       </c>
-      <c r="AO20" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>80</v>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0.45100000000000001</v>
       </c>
       <c r="AQ20" t="s">
         <v>80</v>
@@ -6284,8 +6284,8 @@
       <c r="BB20" t="s">
         <v>80</v>
       </c>
-      <c r="BC20" t="s">
-        <v>80</v>
+      <c r="BC20">
+        <v>0.75</v>
       </c>
       <c r="BD20" t="s">
         <v>80</v>
@@ -6302,8 +6302,8 @@
       <c r="BH20" t="s">
         <v>80</v>
       </c>
-      <c r="BI20" t="s">
-        <v>80</v>
+      <c r="BI20">
+        <v>0.56699999999999995</v>
       </c>
       <c r="BJ20" t="s">
         <v>80</v>
@@ -6323,17 +6323,17 @@
       <c r="BO20" t="s">
         <v>80</v>
       </c>
-      <c r="BP20">
-        <v>24</v>
-      </c>
-      <c r="BQ20" t="s">
-        <v>80</v>
-      </c>
-      <c r="BR20">
-        <v>12</v>
-      </c>
-      <c r="BS20" t="s">
-        <v>80</v>
+      <c r="BP20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ20">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS20">
+        <v>0.38800000000000001</v>
       </c>
       <c r="BT20" t="s">
         <v>80</v>
@@ -6366,36 +6366,36 @@
         <v>80</v>
       </c>
       <c r="CD20" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="CE20" t="s">
         <v>80</v>
       </c>
-      <c r="CF20" t="s">
-        <v>80</v>
+      <c r="CF20">
+        <v>0.224</v>
       </c>
       <c r="CG20" t="s">
         <v>80</v>
       </c>
-      <c r="CH20" t="s">
-        <v>80</v>
+      <c r="CH20">
+        <v>0.14299999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="C21">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s">
-        <v>80</v>
+        <v>167</v>
+      </c>
+      <c r="D21">
+        <v>167</v>
       </c>
       <c r="E21">
-        <v>0.5</v>
+        <v>9</v>
       </c>
       <c r="F21">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="G21" t="s">
         <v>80</v>
@@ -6406,44 +6406,44 @@
       <c r="I21" t="s">
         <v>80</v>
       </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21" t="s">
-        <v>80</v>
-      </c>
-      <c r="L21" t="s">
-        <v>80</v>
-      </c>
-      <c r="M21" t="s">
-        <v>80</v>
-      </c>
-      <c r="N21" t="s">
-        <v>80</v>
-      </c>
-      <c r="O21" t="s">
-        <v>80</v>
+      <c r="J21" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21">
+        <v>106</v>
+      </c>
+      <c r="L21">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="M21">
+        <v>61</v>
+      </c>
+      <c r="N21">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>80</v>
       </c>
       <c r="R21">
-        <v>0.61</v>
-      </c>
-      <c r="S21" t="s">
-        <v>80</v>
-      </c>
-      <c r="T21" t="s">
-        <v>80</v>
-      </c>
-      <c r="U21" t="s">
-        <v>80</v>
-      </c>
-      <c r="V21" t="s">
-        <v>80</v>
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="S21">
+        <v>70</v>
+      </c>
+      <c r="T21">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="U21">
+        <v>10</v>
+      </c>
+      <c r="V21">
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="W21" t="s">
         <v>80</v>
@@ -6457,11 +6457,11 @@
       <c r="Z21" t="s">
         <v>80</v>
       </c>
-      <c r="AA21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>80</v>
+      <c r="AA21">
+        <v>10</v>
+      </c>
+      <c r="AB21">
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="AC21" t="s">
         <v>80</v>
@@ -6472,8 +6472,8 @@
       <c r="AE21" t="s">
         <v>80</v>
       </c>
-      <c r="AF21">
-        <v>0.02</v>
+      <c r="AF21" t="s">
+        <v>80</v>
       </c>
       <c r="AG21" t="s">
         <v>80</v>
@@ -6484,83 +6484,83 @@
       <c r="AI21" t="s">
         <v>80</v>
       </c>
-      <c r="AJ21">
+      <c r="AJ21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP21">
+        <v>1</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW21">
+        <v>167</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB21">
+        <v>75</v>
+      </c>
+      <c r="BC21">
         <v>0.44900000000000001</v>
       </c>
-      <c r="AK21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>80</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB21" t="s">
-        <v>80</v>
-      </c>
-      <c r="BC21">
-        <v>0.75</v>
-      </c>
       <c r="BD21" t="s">
         <v>80</v>
       </c>
       <c r="BE21" t="s">
         <v>80</v>
       </c>
-      <c r="BF21" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG21" t="s">
-        <v>80</v>
+      <c r="BF21">
+        <v>103</v>
+      </c>
+      <c r="BG21">
+        <v>0.61699999999999999</v>
       </c>
       <c r="BH21" t="s">
         <v>80</v>
       </c>
       <c r="BI21">
-        <v>0.56699999999999995</v>
+        <v>0.3</v>
       </c>
       <c r="BJ21" t="s">
         <v>80</v>
@@ -6568,11 +6568,11 @@
       <c r="BK21" t="s">
         <v>80</v>
       </c>
-      <c r="BL21" t="s">
-        <v>80</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>80</v>
+      <c r="BL21">
+        <v>92</v>
+      </c>
+      <c r="BM21">
+        <v>0.55100000000000005</v>
       </c>
       <c r="BN21" t="s">
         <v>80</v>
@@ -6580,23 +6580,23 @@
       <c r="BO21" t="s">
         <v>80</v>
       </c>
-      <c r="BP21" t="s">
-        <v>80</v>
+      <c r="BP21">
+        <v>100</v>
       </c>
       <c r="BQ21">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="BR21" t="s">
-        <v>80</v>
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="BR21">
+        <v>51</v>
       </c>
       <c r="BS21">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="BT21" t="s">
-        <v>80</v>
-      </c>
-      <c r="BU21" t="s">
-        <v>80</v>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="BT21">
+        <v>2</v>
+      </c>
+      <c r="BU21">
+        <v>0.19600000000000001</v>
       </c>
       <c r="BV21" t="s">
         <v>80</v>
@@ -6604,58 +6604,61 @@
       <c r="BW21" t="s">
         <v>80</v>
       </c>
-      <c r="BX21" t="s">
-        <v>80</v>
+      <c r="BX21">
+        <v>16</v>
       </c>
       <c r="BY21" t="s">
         <v>80</v>
       </c>
-      <c r="BZ21" t="s">
-        <v>80</v>
+      <c r="BZ21">
+        <v>2</v>
       </c>
       <c r="CA21" t="s">
         <v>80</v>
       </c>
-      <c r="CB21" t="s">
-        <v>80</v>
+      <c r="CB21">
+        <v>42</v>
       </c>
       <c r="CC21" t="s">
         <v>80</v>
       </c>
       <c r="CD21" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE21" t="s">
-        <v>80</v>
+        <v>102</v>
+      </c>
+      <c r="CE21">
+        <v>14</v>
       </c>
       <c r="CF21">
-        <v>0.224</v>
-      </c>
-      <c r="CG21" t="s">
-        <v>80</v>
-      </c>
-      <c r="CH21">
-        <v>0.14299999999999999</v>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="CG21">
+        <v>14</v>
+      </c>
+      <c r="CH21" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
       </c>
       <c r="C22">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F22">
-        <v>99</v>
-      </c>
-      <c r="G22" t="s">
-        <v>80</v>
+        <v>40</v>
+      </c>
+      <c r="G22">
+        <v>24</v>
       </c>
       <c r="H22" t="s">
         <v>80</v>
@@ -6663,20 +6666,20 @@
       <c r="I22" t="s">
         <v>80</v>
       </c>
-      <c r="J22" t="s">
-        <v>80</v>
+      <c r="J22">
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="L22">
-        <v>0.63700000000000001</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.36299999999999999</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -6684,23 +6687,23 @@
       <c r="P22">
         <v>0</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" t="s">
         <v>80</v>
       </c>
       <c r="R22">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="S22">
-        <v>70</v>
+        <v>1</v>
+      </c>
+      <c r="S22" t="s">
+        <v>80</v>
       </c>
       <c r="T22">
-        <v>0.41899999999999998</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>5.3999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="W22" t="s">
         <v>80</v>
@@ -6715,10 +6718,10 @@
         <v>80</v>
       </c>
       <c r="AA22">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AB22">
-        <v>5.3999999999999999E-2</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="AC22" t="s">
         <v>80</v>
@@ -6732,56 +6735,56 @@
       <c r="AF22" t="s">
         <v>80</v>
       </c>
-      <c r="AG22" t="s">
-        <v>80</v>
+      <c r="AG22">
+        <v>4</v>
       </c>
       <c r="AH22" t="s">
         <v>80</v>
       </c>
-      <c r="AI22" t="s">
-        <v>80</v>
+      <c r="AI22">
+        <v>3</v>
       </c>
       <c r="AJ22" t="s">
         <v>80</v>
       </c>
-      <c r="AK22" t="s">
-        <v>80</v>
+      <c r="AK22">
+        <v>12</v>
       </c>
       <c r="AL22" t="s">
         <v>80</v>
       </c>
-      <c r="AM22" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>80</v>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>1</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV22" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW22">
-        <v>167</v>
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>80</v>
       </c>
       <c r="AX22" t="s">
         <v>80</v>
@@ -6795,11 +6798,11 @@
       <c r="BA22" t="s">
         <v>80</v>
       </c>
-      <c r="BB22">
-        <v>75</v>
-      </c>
-      <c r="BC22">
-        <v>0.44900000000000001</v>
+      <c r="BB22" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>80</v>
       </c>
       <c r="BD22" t="s">
         <v>80</v>
@@ -6807,17 +6810,17 @@
       <c r="BE22" t="s">
         <v>80</v>
       </c>
-      <c r="BF22">
-        <v>103</v>
+      <c r="BF22" t="s">
+        <v>80</v>
       </c>
       <c r="BG22">
-        <v>0.61699999999999999</v>
+        <v>1</v>
       </c>
       <c r="BH22" t="s">
         <v>80</v>
       </c>
-      <c r="BI22">
-        <v>0.3</v>
+      <c r="BI22" t="s">
+        <v>80</v>
       </c>
       <c r="BJ22" t="s">
         <v>80</v>
@@ -6825,11 +6828,11 @@
       <c r="BK22" t="s">
         <v>80</v>
       </c>
-      <c r="BL22">
-        <v>92</v>
-      </c>
-      <c r="BM22">
-        <v>0.55100000000000005</v>
+      <c r="BL22" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>80</v>
       </c>
       <c r="BN22" t="s">
         <v>80</v>
@@ -6837,23 +6840,23 @@
       <c r="BO22" t="s">
         <v>80</v>
       </c>
-      <c r="BP22">
-        <v>100</v>
-      </c>
-      <c r="BQ22">
-        <v>0.59899999999999998</v>
+      <c r="BP22" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>80</v>
       </c>
       <c r="BR22">
-        <v>51</v>
-      </c>
-      <c r="BS22">
-        <v>0.30599999999999999</v>
+        <v>5</v>
+      </c>
+      <c r="BS22" t="s">
+        <v>80</v>
       </c>
       <c r="BT22">
-        <v>2</v>
-      </c>
-      <c r="BU22">
-        <v>0.19600000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>80</v>
       </c>
       <c r="BV22" t="s">
         <v>80</v>
@@ -6861,35 +6864,35 @@
       <c r="BW22" t="s">
         <v>80</v>
       </c>
-      <c r="BX22">
-        <v>16</v>
+      <c r="BX22" t="s">
+        <v>80</v>
       </c>
       <c r="BY22" t="s">
         <v>80</v>
       </c>
-      <c r="BZ22">
-        <v>2</v>
+      <c r="BZ22" t="s">
+        <v>80</v>
       </c>
       <c r="CA22" t="s">
         <v>80</v>
       </c>
-      <c r="CB22">
-        <v>42</v>
+      <c r="CB22" t="s">
+        <v>80</v>
       </c>
       <c r="CC22" t="s">
         <v>80</v>
       </c>
       <c r="CD22" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="CE22">
         <v>14</v>
       </c>
-      <c r="CF22">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="CG22">
-        <v>14</v>
+      <c r="CF22" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG22" t="s">
+        <v>80</v>
       </c>
       <c r="CH22" t="s">
         <v>80</v>
@@ -6897,37 +6900,34 @@
     </row>
     <row r="23" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>523</v>
-      </c>
-      <c r="B23" t="s">
-        <v>103</v>
+        <v>553</v>
       </c>
       <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>75</v>
+      </c>
+      <c r="E23">
         <v>19</v>
       </c>
-      <c r="D23">
-        <v>19</v>
-      </c>
-      <c r="E23">
-        <v>17</v>
-      </c>
       <c r="F23">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G23">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s">
         <v>80</v>
       </c>
-      <c r="I23" t="s">
-        <v>80</v>
+      <c r="I23">
+        <v>75</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -6947,11 +6947,11 @@
       <c r="Q23" t="s">
         <v>80</v>
       </c>
-      <c r="R23">
-        <v>1</v>
-      </c>
-      <c r="S23" t="s">
-        <v>80</v>
+      <c r="R23" t="s">
+        <v>80</v>
+      </c>
+      <c r="S23">
+        <v>75</v>
       </c>
       <c r="T23">
         <v>1</v>
@@ -6975,10 +6975,10 @@
         <v>80</v>
       </c>
       <c r="AA23">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="AB23">
-        <v>0.94699999999999995</v>
+        <v>1</v>
       </c>
       <c r="AC23" t="s">
         <v>80</v>
@@ -6989,167 +6989,167 @@
       <c r="AE23" t="s">
         <v>80</v>
       </c>
-      <c r="AF23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG23">
+      <c r="AF23">
+        <v>0.64</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO23">
+        <v>75</v>
+      </c>
+      <c r="AP23">
+        <v>1</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW23">
+        <v>256</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ23">
+        <v>0.63</v>
+      </c>
+      <c r="BR23">
+        <v>9</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BU23">
+        <v>0</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX23">
+        <v>2</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB23">
         <v>4</v>
       </c>
-      <c r="AH23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI23">
+      <c r="CC23" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE23">
+        <v>22</v>
+      </c>
+      <c r="CF23" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG23">
         <v>3</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK23">
-        <v>12</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>0</v>
-      </c>
-      <c r="AS23">
-        <v>0</v>
-      </c>
-      <c r="AT23">
-        <v>0</v>
-      </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
-      </c>
-      <c r="AW23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AX23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BA23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BC23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BD23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG23">
-        <v>1</v>
-      </c>
-      <c r="BH23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BI23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BJ23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BK23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BL23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BM23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BN23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BO23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BP23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BQ23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BR23">
-        <v>5</v>
-      </c>
-      <c r="BS23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BT23">
-        <v>0</v>
-      </c>
-      <c r="BU23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BV23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BW23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BX23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BY23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BZ23" t="s">
-        <v>80</v>
-      </c>
-      <c r="CA23" t="s">
-        <v>80</v>
-      </c>
-      <c r="CB23" t="s">
-        <v>80</v>
-      </c>
-      <c r="CC23" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD23" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE23">
-        <v>14</v>
-      </c>
-      <c r="CF23" t="s">
-        <v>80</v>
-      </c>
-      <c r="CG23" t="s">
-        <v>80</v>
       </c>
       <c r="CH23" t="s">
         <v>80</v>
@@ -7157,43 +7157,40 @@
     </row>
     <row r="24" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>553</v>
-      </c>
-      <c r="C24">
-        <v>22</v>
+        <v>546</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
       </c>
       <c r="D24">
-        <v>75</v>
+        <v>414</v>
       </c>
       <c r="E24">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="G24">
-        <v>28</v>
-      </c>
-      <c r="H24" t="s">
-        <v>80</v>
+        <v>40.6</v>
       </c>
       <c r="I24">
-        <v>75</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
+        <v>270</v>
+      </c>
+      <c r="J24" t="s">
+        <v>80</v>
       </c>
       <c r="K24">
-        <v>75</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
+        <v>233</v>
+      </c>
+      <c r="L24" t="s">
+        <v>80</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
+        <v>181</v>
+      </c>
+      <c r="N24" t="s">
+        <v>80</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -7201,23 +7198,23 @@
       <c r="P24">
         <v>0</v>
       </c>
-      <c r="Q24" t="s">
-        <v>80</v>
-      </c>
-      <c r="R24" t="s">
-        <v>80</v>
-      </c>
-      <c r="S24">
-        <v>75</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
+      <c r="Q24">
+        <v>12</v>
+      </c>
+      <c r="R24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="S24" t="s">
+        <v>80</v>
+      </c>
+      <c r="T24" t="s">
+        <v>80</v>
+      </c>
+      <c r="U24" t="s">
+        <v>80</v>
+      </c>
+      <c r="V24" t="s">
+        <v>80</v>
       </c>
       <c r="W24" t="s">
         <v>80</v>
@@ -7231,11 +7228,11 @@
       <c r="Z24" t="s">
         <v>80</v>
       </c>
-      <c r="AA24">
-        <v>75</v>
-      </c>
-      <c r="AB24">
-        <v>1</v>
+      <c r="AA24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>80</v>
       </c>
       <c r="AC24" t="s">
         <v>80</v>
@@ -7246,8 +7243,8 @@
       <c r="AE24" t="s">
         <v>80</v>
       </c>
-      <c r="AF24">
-        <v>0.64</v>
+      <c r="AF24" t="s">
+        <v>80</v>
       </c>
       <c r="AG24" t="s">
         <v>80</v>
@@ -7273,8 +7270,8 @@
       <c r="AN24" t="s">
         <v>80</v>
       </c>
-      <c r="AO24">
-        <v>75</v>
+      <c r="AO24" t="s">
+        <v>80</v>
       </c>
       <c r="AP24">
         <v>1</v>
@@ -7297,8 +7294,8 @@
       <c r="AV24" t="s">
         <v>80</v>
       </c>
-      <c r="AW24">
-        <v>256</v>
+      <c r="AW24" t="s">
+        <v>80</v>
       </c>
       <c r="AX24" t="s">
         <v>80</v>
@@ -7354,14 +7351,14 @@
       <c r="BO24" t="s">
         <v>80</v>
       </c>
-      <c r="BP24" t="s">
-        <v>80</v>
-      </c>
-      <c r="BQ24">
-        <v>0.63</v>
+      <c r="BP24">
+        <v>419</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>80</v>
       </c>
       <c r="BR24">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BS24" t="s">
         <v>80</v>
@@ -7378,8 +7375,8 @@
       <c r="BW24" t="s">
         <v>80</v>
       </c>
-      <c r="BX24">
-        <v>2</v>
+      <c r="BX24" t="s">
+        <v>80</v>
       </c>
       <c r="BY24" t="s">
         <v>80</v>
@@ -7390,8 +7387,8 @@
       <c r="CA24" t="s">
         <v>80</v>
       </c>
-      <c r="CB24">
-        <v>4</v>
+      <c r="CB24" t="s">
+        <v>80</v>
       </c>
       <c r="CC24" t="s">
         <v>80</v>
@@ -7399,8 +7396,8 @@
       <c r="CD24" t="s">
         <v>80</v>
       </c>
-      <c r="CE24">
-        <v>22</v>
+      <c r="CE24" t="s">
+        <v>80</v>
       </c>
       <c r="CF24" t="s">
         <v>80</v>
@@ -7414,37 +7411,40 @@
     </row>
     <row r="25" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="C25" t="s">
         <v>80</v>
       </c>
       <c r="D25">
-        <v>414</v>
+        <v>59</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F25">
         <v>84</v>
       </c>
-      <c r="G25">
-        <v>40.6</v>
+      <c r="G25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25">
+        <v>58</v>
       </c>
       <c r="I25">
-        <v>270</v>
+        <v>59</v>
       </c>
       <c r="J25" t="s">
         <v>80</v>
       </c>
       <c r="K25">
-        <v>233</v>
+        <v>37</v>
       </c>
       <c r="L25" t="s">
         <v>80</v>
       </c>
       <c r="M25">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="N25" t="s">
         <v>80</v>
@@ -7452,26 +7452,26 @@
       <c r="O25">
         <v>0</v>
       </c>
-      <c r="P25">
-        <v>0</v>
+      <c r="P25" t="s">
+        <v>80</v>
       </c>
       <c r="Q25">
-        <v>12</v>
-      </c>
-      <c r="R25">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="S25" t="s">
-        <v>80</v>
-      </c>
-      <c r="T25" t="s">
-        <v>80</v>
-      </c>
-      <c r="U25" t="s">
-        <v>80</v>
-      </c>
-      <c r="V25" t="s">
-        <v>80</v>
+        <v>1</v>
+      </c>
+      <c r="R25" t="s">
+        <v>80</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
       </c>
       <c r="W25" t="s">
         <v>80</v>
@@ -7485,17 +7485,17 @@
       <c r="Z25" t="s">
         <v>80</v>
       </c>
-      <c r="AA25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>80</v>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
       </c>
       <c r="AE25" t="s">
         <v>80</v>
@@ -7503,68 +7503,68 @@
       <c r="AF25" t="s">
         <v>80</v>
       </c>
-      <c r="AG25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP25">
-        <v>1</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AX25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AZ25" t="s">
-        <v>80</v>
-      </c>
-      <c r="BA25" t="s">
-        <v>80</v>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>59</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>1</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
       </c>
       <c r="BB25" t="s">
         <v>80</v>
@@ -7578,8 +7578,8 @@
       <c r="BE25" t="s">
         <v>80</v>
       </c>
-      <c r="BF25" t="s">
-        <v>80</v>
+      <c r="BF25">
+        <v>55</v>
       </c>
       <c r="BG25" t="s">
         <v>80</v>
@@ -7593,8 +7593,8 @@
       <c r="BJ25" t="s">
         <v>80</v>
       </c>
-      <c r="BK25" t="s">
-        <v>80</v>
+      <c r="BK25">
+        <v>0.93200000000000005</v>
       </c>
       <c r="BL25" t="s">
         <v>80</v>
@@ -7609,31 +7609,31 @@
         <v>80</v>
       </c>
       <c r="BP25">
-        <v>419</v>
-      </c>
-      <c r="BQ25" t="s">
-        <v>80</v>
-      </c>
-      <c r="BR25">
+        <v>0</v>
+      </c>
+      <c r="BQ25">
+        <v>0</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS25">
+        <v>1</v>
+      </c>
+      <c r="BT25">
         <v>3</v>
       </c>
-      <c r="BS25" t="s">
-        <v>80</v>
-      </c>
-      <c r="BT25">
-        <v>0</v>
-      </c>
       <c r="BU25">
-        <v>0</v>
-      </c>
-      <c r="BV25" t="s">
-        <v>80</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BV25">
+        <v>44</v>
       </c>
       <c r="BW25" t="s">
         <v>80</v>
       </c>
-      <c r="BX25" t="s">
-        <v>80</v>
+      <c r="BX25">
+        <v>44</v>
       </c>
       <c r="BY25" t="s">
         <v>80</v>
@@ -7653,14 +7653,14 @@
       <c r="CD25" t="s">
         <v>80</v>
       </c>
-      <c r="CE25" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF25" t="s">
-        <v>80</v>
-      </c>
-      <c r="CG25">
-        <v>3</v>
+      <c r="CE25">
+        <v>0</v>
+      </c>
+      <c r="CF25">
+        <v>0</v>
+      </c>
+      <c r="CG25" t="s">
+        <v>80</v>
       </c>
       <c r="CH25" t="s">
         <v>80</v>
@@ -7668,61 +7668,61 @@
     </row>
     <row r="26" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>570</v>
-      </c>
-      <c r="C26" t="s">
-        <v>80</v>
+        <v>581</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26">
+        <v>33</v>
       </c>
       <c r="D26">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E26">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F26">
-        <v>84</v>
-      </c>
-      <c r="G26" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H26">
-        <v>58</v>
-      </c>
-      <c r="I26">
-        <v>59</v>
-      </c>
-      <c r="J26" t="s">
-        <v>80</v>
-      </c>
-      <c r="K26">
-        <v>37</v>
-      </c>
-      <c r="L26" t="s">
-        <v>80</v>
-      </c>
-      <c r="M26">
-        <v>22</v>
-      </c>
-      <c r="N26" t="s">
-        <v>80</v>
+        <v>35</v>
+      </c>
+      <c r="I26" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>80</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>80</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
-      <c r="P26" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="R26" t="s">
-        <v>80</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>80</v>
+      </c>
+      <c r="R26">
+        <v>0.97</v>
+      </c>
+      <c r="S26" t="s">
+        <v>80</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -7742,11 +7742,11 @@
       <c r="Z26" t="s">
         <v>80</v>
       </c>
-      <c r="AA26">
-        <v>0</v>
+      <c r="AA26" t="s">
+        <v>80</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>0.182</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -7766,11 +7766,11 @@
       <c r="AH26">
         <v>0</v>
       </c>
-      <c r="AI26">
-        <v>0</v>
+      <c r="AI26" t="s">
+        <v>80</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="AK26">
         <v>0</v>
@@ -7785,10 +7785,10 @@
         <v>0</v>
       </c>
       <c r="AO26">
-        <v>1</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
       </c>
       <c r="AQ26">
         <v>0</v>
@@ -7808,8 +7808,8 @@
       <c r="AV26">
         <v>0</v>
       </c>
-      <c r="AW26">
-        <v>59</v>
+      <c r="AW26" t="s">
+        <v>80</v>
       </c>
       <c r="AX26">
         <v>0</v>
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="AZ26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA26">
         <v>0</v>
@@ -7826,8 +7826,8 @@
       <c r="BB26" t="s">
         <v>80</v>
       </c>
-      <c r="BC26" t="s">
-        <v>80</v>
+      <c r="BC26">
+        <v>0.97</v>
       </c>
       <c r="BD26" t="s">
         <v>80</v>
@@ -7836,13 +7836,13 @@
         <v>80</v>
       </c>
       <c r="BF26">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="BG26" t="s">
         <v>80</v>
       </c>
-      <c r="BH26" t="s">
-        <v>80</v>
+      <c r="BH26">
+        <v>24</v>
       </c>
       <c r="BI26" t="s">
         <v>80</v>
@@ -7850,14 +7850,14 @@
       <c r="BJ26" t="s">
         <v>80</v>
       </c>
-      <c r="BK26">
-        <v>0.93200000000000005</v>
+      <c r="BK26" t="s">
+        <v>80</v>
       </c>
       <c r="BL26" t="s">
         <v>80</v>
       </c>
-      <c r="BM26" t="s">
-        <v>80</v>
+      <c r="BM26">
+        <v>0.03</v>
       </c>
       <c r="BN26" t="s">
         <v>80</v>
@@ -7866,31 +7866,31 @@
         <v>80</v>
       </c>
       <c r="BP26">
-        <v>0</v>
-      </c>
-      <c r="BQ26">
-        <v>0</v>
-      </c>
-      <c r="BR26" t="s">
-        <v>80</v>
-      </c>
-      <c r="BS26">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR26">
+        <v>6</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>80</v>
       </c>
       <c r="BT26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BU26">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="BV26">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="BW26" t="s">
         <v>80</v>
       </c>
       <c r="BX26">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="BY26" t="s">
         <v>80</v>
@@ -7901,14 +7901,14 @@
       <c r="CA26" t="s">
         <v>80</v>
       </c>
-      <c r="CB26" t="s">
-        <v>80</v>
+      <c r="CB26">
+        <v>5</v>
       </c>
       <c r="CC26" t="s">
         <v>80</v>
       </c>
       <c r="CD26" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="CE26">
         <v>0</v>
@@ -7916,8 +7916,8 @@
       <c r="CF26">
         <v>0</v>
       </c>
-      <c r="CG26" t="s">
-        <v>80</v>
+      <c r="CG26">
+        <v>1</v>
       </c>
       <c r="CH26" t="s">
         <v>80</v>
@@ -7925,28 +7925,28 @@
     </row>
     <row r="27" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>581</v>
-      </c>
-      <c r="B27" t="s">
-        <v>104</v>
+        <v>588</v>
       </c>
       <c r="C27">
         <v>33</v>
       </c>
       <c r="D27">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E27">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F27">
-        <v>50</v>
-      </c>
-      <c r="H27">
-        <v>35</v>
-      </c>
-      <c r="I27" t="s">
-        <v>80</v>
+        <v>96</v>
+      </c>
+      <c r="G27">
+        <v>64</v>
+      </c>
+      <c r="H27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -7955,16 +7955,16 @@
         <v>80</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="M27" t="s">
         <v>80</v>
       </c>
       <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="O27" t="s">
+        <v>80</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -7973,19 +7973,19 @@
         <v>80</v>
       </c>
       <c r="R27">
-        <v>0.97</v>
+        <v>0.121</v>
       </c>
       <c r="S27" t="s">
         <v>80</v>
       </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
+      <c r="T27" t="s">
+        <v>80</v>
+      </c>
+      <c r="U27" t="s">
+        <v>80</v>
+      </c>
+      <c r="V27" t="s">
+        <v>80</v>
       </c>
       <c r="W27" t="s">
         <v>80</v>
@@ -7996,20 +7996,20 @@
       <c r="Y27" t="s">
         <v>80</v>
       </c>
-      <c r="Z27" t="s">
-        <v>80</v>
+      <c r="Z27">
+        <v>0.121</v>
       </c>
       <c r="AA27" t="s">
         <v>80</v>
       </c>
       <c r="AB27">
-        <v>0.182</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>80</v>
       </c>
       <c r="AE27" t="s">
         <v>80</v>
@@ -8017,56 +8017,56 @@
       <c r="AF27" t="s">
         <v>80</v>
       </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
+      <c r="AG27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>80</v>
       </c>
       <c r="AI27" t="s">
         <v>80</v>
       </c>
-      <c r="AJ27">
-        <v>0.97</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
+      <c r="AJ27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>80</v>
       </c>
       <c r="AO27">
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
-      </c>
-      <c r="AS27">
-        <v>0</v>
-      </c>
-      <c r="AT27">
-        <v>0</v>
-      </c>
-      <c r="AU27">
-        <v>0</v>
-      </c>
-      <c r="AV27">
-        <v>0</v>
-      </c>
-      <c r="AW27" t="s">
-        <v>80</v>
+        <v>1</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW27">
+        <v>33</v>
       </c>
       <c r="AX27">
         <v>0</v>
@@ -8084,22 +8084,22 @@
         <v>80</v>
       </c>
       <c r="BC27">
-        <v>0.97</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="BD27" t="s">
         <v>80</v>
       </c>
-      <c r="BE27" t="s">
-        <v>80</v>
-      </c>
-      <c r="BF27">
-        <v>33</v>
-      </c>
-      <c r="BG27" t="s">
-        <v>80</v>
-      </c>
-      <c r="BH27">
-        <v>24</v>
+      <c r="BE27">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG27">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>80</v>
       </c>
       <c r="BI27" t="s">
         <v>80</v>
@@ -8107,50 +8107,50 @@
       <c r="BJ27" t="s">
         <v>80</v>
       </c>
-      <c r="BK27" t="s">
-        <v>80</v>
+      <c r="BK27">
+        <v>0.121</v>
       </c>
       <c r="BL27" t="s">
         <v>80</v>
       </c>
       <c r="BM27">
-        <v>0.03</v>
+        <v>0.879</v>
       </c>
       <c r="BN27" t="s">
         <v>80</v>
       </c>
-      <c r="BO27" t="s">
-        <v>80</v>
+      <c r="BO27">
+        <v>0.81818181820000002</v>
       </c>
       <c r="BP27">
-        <v>46</v>
-      </c>
-      <c r="BQ27" t="s">
-        <v>80</v>
-      </c>
-      <c r="BR27">
-        <v>6</v>
-      </c>
-      <c r="BS27" t="s">
-        <v>80</v>
-      </c>
-      <c r="BT27">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BQ27">
+        <v>0</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS27">
+        <v>1</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>80</v>
       </c>
       <c r="BU27">
-        <v>0</v>
-      </c>
-      <c r="BV27">
-        <v>6</v>
-      </c>
-      <c r="BW27" t="s">
-        <v>80</v>
-      </c>
-      <c r="BX27">
-        <v>1</v>
-      </c>
-      <c r="BY27" t="s">
-        <v>80</v>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW27">
+        <v>1</v>
+      </c>
+      <c r="BX27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY27">
+        <v>1</v>
       </c>
       <c r="BZ27" t="s">
         <v>80</v>
@@ -8158,14 +8158,14 @@
       <c r="CA27" t="s">
         <v>80</v>
       </c>
-      <c r="CB27">
-        <v>5</v>
-      </c>
-      <c r="CC27" t="s">
-        <v>80</v>
+      <c r="CB27" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC27">
+        <v>0.4545454545</v>
       </c>
       <c r="CD27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="CE27">
         <v>0</v>
@@ -8174,36 +8174,36 @@
         <v>0</v>
       </c>
       <c r="CG27">
-        <v>1</v>
-      </c>
-      <c r="CH27" t="s">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="CH27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>588</v>
+        <v>646</v>
       </c>
       <c r="C28">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>19</v>
       </c>
       <c r="F28">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="G28">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
         <v>80</v>
       </c>
-      <c r="I28">
-        <v>0</v>
+      <c r="I28" t="s">
+        <v>80</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -8212,16 +8212,16 @@
         <v>80</v>
       </c>
       <c r="L28">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="M28" t="s">
-        <v>80</v>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="O28" t="s">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -8230,19 +8230,19 @@
         <v>80</v>
       </c>
       <c r="R28">
-        <v>0.121</v>
+        <v>1</v>
       </c>
       <c r="S28" t="s">
         <v>80</v>
       </c>
-      <c r="T28" t="s">
-        <v>80</v>
-      </c>
-      <c r="U28" t="s">
-        <v>80</v>
-      </c>
-      <c r="V28" t="s">
-        <v>80</v>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
       </c>
       <c r="W28" t="s">
         <v>80</v>
@@ -8253,14 +8253,14 @@
       <c r="Y28" t="s">
         <v>80</v>
       </c>
-      <c r="Z28">
-        <v>0.121</v>
+      <c r="Z28" t="s">
+        <v>80</v>
       </c>
       <c r="AA28" t="s">
         <v>80</v>
       </c>
       <c r="AB28">
-        <v>0.27200000000000002</v>
+        <v>0.125</v>
       </c>
       <c r="AC28" t="s">
         <v>80</v>
@@ -8268,62 +8268,62 @@
       <c r="AD28" t="s">
         <v>80</v>
       </c>
-      <c r="AE28" t="s">
-        <v>80</v>
+      <c r="AE28">
+        <v>2</v>
       </c>
       <c r="AF28" t="s">
         <v>80</v>
       </c>
-      <c r="AG28" t="s">
-        <v>80</v>
+      <c r="AG28">
+        <v>2</v>
       </c>
       <c r="AH28" t="s">
         <v>80</v>
       </c>
-      <c r="AI28" t="s">
-        <v>80</v>
+      <c r="AI28">
+        <v>17</v>
       </c>
       <c r="AJ28" t="s">
         <v>80</v>
       </c>
-      <c r="AK28" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>80</v>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
       </c>
       <c r="AO28">
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU28" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV28" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW28">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>80</v>
       </c>
       <c r="AX28">
         <v>0</v>
@@ -8337,145 +8337,145 @@
       <c r="BA28">
         <v>0</v>
       </c>
-      <c r="BB28" t="s">
-        <v>80</v>
+      <c r="BB28">
+        <v>0</v>
       </c>
       <c r="BC28">
-        <v>9.0999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="BD28" t="s">
         <v>80</v>
       </c>
-      <c r="BE28">
-        <v>0.51500000000000001</v>
+      <c r="BE28" t="s">
+        <v>80</v>
       </c>
       <c r="BF28" t="s">
         <v>80</v>
       </c>
       <c r="BG28">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="BH28" t="s">
-        <v>80</v>
+        <v>1</v>
+      </c>
+      <c r="BH28">
+        <v>1</v>
       </c>
       <c r="BI28" t="s">
         <v>80</v>
       </c>
-      <c r="BJ28" t="s">
-        <v>80</v>
+      <c r="BJ28">
+        <v>0</v>
       </c>
       <c r="BK28">
-        <v>0.121</v>
+        <v>0</v>
       </c>
       <c r="BL28" t="s">
         <v>80</v>
       </c>
       <c r="BM28">
-        <v>0.879</v>
+        <v>1</v>
       </c>
       <c r="BN28" t="s">
         <v>80</v>
       </c>
       <c r="BO28">
-        <v>0.81818181820000002</v>
+        <v>1</v>
       </c>
       <c r="BP28">
-        <v>0</v>
-      </c>
-      <c r="BQ28">
-        <v>0</v>
-      </c>
-      <c r="BR28" t="s">
-        <v>80</v>
-      </c>
-      <c r="BS28">
-        <v>1</v>
-      </c>
-      <c r="BT28" t="s">
-        <v>80</v>
-      </c>
-      <c r="BU28">
-        <v>6.0999999999999999E-2</v>
+        <v>1</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR28">
+        <v>4</v>
+      </c>
+      <c r="BS28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT28">
+        <v>1</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>80</v>
       </c>
       <c r="BV28" t="s">
         <v>80</v>
       </c>
-      <c r="BW28">
-        <v>1</v>
-      </c>
-      <c r="BX28" t="s">
-        <v>80</v>
-      </c>
-      <c r="BY28">
-        <v>1</v>
-      </c>
-      <c r="BZ28" t="s">
-        <v>80</v>
+      <c r="BW28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX28">
+        <v>1</v>
+      </c>
+      <c r="BY28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ28">
+        <v>1</v>
       </c>
       <c r="CA28" t="s">
         <v>80</v>
       </c>
-      <c r="CB28" t="s">
-        <v>80</v>
-      </c>
-      <c r="CC28">
-        <v>0.4545454545</v>
+      <c r="CB28">
+        <v>2</v>
+      </c>
+      <c r="CC28" t="s">
+        <v>80</v>
       </c>
       <c r="CD28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="CE28">
-        <v>0</v>
-      </c>
-      <c r="CF28">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="CF28" t="s">
+        <v>80</v>
       </c>
       <c r="CG28">
-        <v>0</v>
-      </c>
-      <c r="CH28">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="CH28" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D29">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="E29">
         <v>19</v>
       </c>
       <c r="F29">
-        <v>27</v>
-      </c>
-      <c r="G29">
-        <v>24</v>
-      </c>
-      <c r="H29" t="s">
-        <v>80</v>
-      </c>
-      <c r="I29" t="s">
-        <v>80</v>
+        <v>62</v>
+      </c>
+      <c r="G29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29">
+        <v>53</v>
+      </c>
+      <c r="I29">
+        <v>67</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
-      <c r="K29" t="s">
-        <v>80</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
+      <c r="K29">
+        <v>50</v>
+      </c>
+      <c r="L29" t="s">
+        <v>80</v>
       </c>
       <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="N29" t="s">
+        <v>80</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -8483,23 +8483,23 @@
       <c r="P29">
         <v>0</v>
       </c>
-      <c r="Q29" t="s">
-        <v>80</v>
+      <c r="Q29">
+        <v>17</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>0.253</v>
       </c>
       <c r="S29" t="s">
         <v>80</v>
       </c>
-      <c r="T29">
-        <v>1</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
+      <c r="T29" t="s">
+        <v>80</v>
+      </c>
+      <c r="U29" t="s">
+        <v>80</v>
+      </c>
+      <c r="V29" t="s">
+        <v>80</v>
       </c>
       <c r="W29" t="s">
         <v>80</v>
@@ -8516,8 +8516,8 @@
       <c r="AA29" t="s">
         <v>80</v>
       </c>
-      <c r="AB29">
-        <v>0.125</v>
+      <c r="AB29" t="s">
+        <v>80</v>
       </c>
       <c r="AC29" t="s">
         <v>80</v>
@@ -8526,40 +8526,40 @@
         <v>80</v>
       </c>
       <c r="AE29">
-        <v>2</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG29">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="AF29">
+        <v>0.09</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>80</v>
       </c>
       <c r="AH29" t="s">
         <v>80</v>
       </c>
-      <c r="AI29">
-        <v>17</v>
+      <c r="AI29" t="s">
+        <v>80</v>
       </c>
       <c r="AJ29" t="s">
         <v>80</v>
       </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
+      <c r="AK29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>80</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
         <v>0</v>
@@ -8583,22 +8583,22 @@
         <v>80</v>
       </c>
       <c r="AX29">
-        <v>0</v>
-      </c>
-      <c r="AY29">
-        <v>0</v>
-      </c>
-      <c r="AZ29">
-        <v>0</v>
-      </c>
-      <c r="BA29">
-        <v>0</v>
-      </c>
-      <c r="BB29">
-        <v>0</v>
-      </c>
-      <c r="BC29">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>80</v>
       </c>
       <c r="BD29" t="s">
         <v>80</v>
@@ -8606,53 +8606,53 @@
       <c r="BE29" t="s">
         <v>80</v>
       </c>
-      <c r="BF29" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG29">
-        <v>1</v>
-      </c>
-      <c r="BH29">
-        <v>1</v>
+      <c r="BF29">
+        <v>22</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>80</v>
       </c>
       <c r="BI29" t="s">
         <v>80</v>
       </c>
-      <c r="BJ29">
-        <v>0</v>
-      </c>
-      <c r="BK29">
-        <v>0</v>
+      <c r="BJ29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK29" t="s">
+        <v>80</v>
       </c>
       <c r="BL29" t="s">
         <v>80</v>
       </c>
-      <c r="BM29">
-        <v>1</v>
+      <c r="BM29" t="s">
+        <v>80</v>
       </c>
       <c r="BN29" t="s">
         <v>80</v>
       </c>
-      <c r="BO29">
-        <v>1</v>
+      <c r="BO29" t="s">
+        <v>80</v>
       </c>
       <c r="BP29">
-        <v>1</v>
-      </c>
-      <c r="BQ29" t="s">
-        <v>80</v>
+        <v>67</v>
+      </c>
+      <c r="BQ29">
+        <v>1</v>
       </c>
       <c r="BR29">
-        <v>4</v>
-      </c>
-      <c r="BS29" t="s">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="BS29">
+        <v>0</v>
       </c>
       <c r="BT29">
-        <v>1</v>
-      </c>
-      <c r="BU29" t="s">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="BU29">
+        <v>0</v>
       </c>
       <c r="BV29" t="s">
         <v>80</v>
@@ -8660,94 +8660,94 @@
       <c r="BW29" t="s">
         <v>80</v>
       </c>
-      <c r="BX29">
-        <v>1</v>
+      <c r="BX29" t="s">
+        <v>80</v>
       </c>
       <c r="BY29" t="s">
         <v>80</v>
       </c>
-      <c r="BZ29">
-        <v>1</v>
+      <c r="BZ29" t="s">
+        <v>80</v>
       </c>
       <c r="CA29" t="s">
         <v>80</v>
       </c>
-      <c r="CB29">
-        <v>2</v>
+      <c r="CB29" t="s">
+        <v>80</v>
       </c>
       <c r="CC29" t="s">
         <v>80</v>
       </c>
       <c r="CD29" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="CE29">
-        <v>15</v>
-      </c>
-      <c r="CF29" t="s">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="CF29">
+        <v>0</v>
       </c>
       <c r="CG29">
-        <v>1</v>
-      </c>
-      <c r="CH29" t="s">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="CH29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>647</v>
+        <v>679</v>
       </c>
       <c r="C30">
-        <v>67</v>
+        <v>586</v>
       </c>
       <c r="D30">
-        <v>67</v>
+        <v>586</v>
       </c>
       <c r="E30">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F30">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="G30" t="s">
         <v>80</v>
       </c>
       <c r="H30">
+        <v>57</v>
+      </c>
+      <c r="I30" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>80</v>
+      </c>
+      <c r="L30">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="M30" t="s">
+        <v>80</v>
+      </c>
+      <c r="N30">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>53</v>
       </c>
-      <c r="I30">
-        <v>67</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>50</v>
-      </c>
-      <c r="L30" t="s">
-        <v>80</v>
-      </c>
-      <c r="M30">
-        <v>17</v>
-      </c>
-      <c r="N30" t="s">
-        <v>80</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>17</v>
-      </c>
       <c r="R30">
-        <v>0.253</v>
-      </c>
-      <c r="S30" t="s">
-        <v>80</v>
+        <v>0.09</v>
+      </c>
+      <c r="S30">
+        <v>4</v>
       </c>
       <c r="T30" t="s">
         <v>80</v>
@@ -8770,8 +8770,8 @@
       <c r="Z30" t="s">
         <v>80</v>
       </c>
-      <c r="AA30" t="s">
-        <v>80</v>
+      <c r="AA30">
+        <v>16</v>
       </c>
       <c r="AB30" t="s">
         <v>80</v>
@@ -8782,11 +8782,11 @@
       <c r="AD30" t="s">
         <v>80</v>
       </c>
-      <c r="AE30">
-        <v>6</v>
-      </c>
-      <c r="AF30">
-        <v>0.09</v>
+      <c r="AE30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>80</v>
       </c>
       <c r="AG30" t="s">
         <v>80</v>
@@ -8818,29 +8818,29 @@
       <c r="AP30">
         <v>1</v>
       </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>0</v>
-      </c>
-      <c r="AS30">
-        <v>0</v>
-      </c>
-      <c r="AT30">
-        <v>0</v>
-      </c>
-      <c r="AU30">
-        <v>0</v>
-      </c>
-      <c r="AV30">
-        <v>0</v>
+      <c r="AQ30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>80</v>
       </c>
       <c r="AW30" t="s">
         <v>80</v>
       </c>
-      <c r="AX30">
-        <v>8</v>
+      <c r="AX30" t="s">
+        <v>80</v>
       </c>
       <c r="AY30" t="s">
         <v>80</v>
@@ -8851,8 +8851,8 @@
       <c r="BA30" t="s">
         <v>80</v>
       </c>
-      <c r="BB30" t="s">
-        <v>80</v>
+      <c r="BB30">
+        <v>23</v>
       </c>
       <c r="BC30" t="s">
         <v>80</v>
@@ -8864,16 +8864,16 @@
         <v>80</v>
       </c>
       <c r="BF30">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="BG30" t="s">
         <v>80</v>
       </c>
-      <c r="BH30" t="s">
-        <v>80</v>
-      </c>
-      <c r="BI30" t="s">
-        <v>80</v>
+      <c r="BH30">
+        <v>10</v>
+      </c>
+      <c r="BI30">
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="BJ30" t="s">
         <v>80</v>
@@ -8894,16 +8894,16 @@
         <v>80</v>
       </c>
       <c r="BP30">
-        <v>67</v>
+        <v>586</v>
       </c>
       <c r="BQ30">
         <v>1</v>
       </c>
       <c r="BR30">
-        <v>0</v>
-      </c>
-      <c r="BS30">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>80</v>
       </c>
       <c r="BT30">
         <v>0</v>
@@ -8917,8 +8917,8 @@
       <c r="BW30" t="s">
         <v>80</v>
       </c>
-      <c r="BX30" t="s">
-        <v>80</v>
+      <c r="BX30">
+        <v>20</v>
       </c>
       <c r="BY30" t="s">
         <v>80</v>
@@ -8929,14 +8929,14 @@
       <c r="CA30" t="s">
         <v>80</v>
       </c>
-      <c r="CB30" t="s">
-        <v>80</v>
+      <c r="CB30">
+        <v>105</v>
       </c>
       <c r="CC30" t="s">
         <v>80</v>
       </c>
       <c r="CD30" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="CE30">
         <v>0</v>
@@ -8945,51 +8945,51 @@
         <v>0</v>
       </c>
       <c r="CG30">
-        <v>0</v>
-      </c>
-      <c r="CH30">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="CH30" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C31">
-        <v>586</v>
+        <v>77</v>
       </c>
       <c r="D31">
-        <v>586</v>
-      </c>
-      <c r="E31">
-        <v>17</v>
-      </c>
-      <c r="F31">
-        <v>100</v>
-      </c>
-      <c r="G31" t="s">
-        <v>80</v>
-      </c>
-      <c r="H31">
-        <v>57</v>
-      </c>
-      <c r="I31" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="E31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31">
+        <v>37</v>
+      </c>
+      <c r="H31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31">
+        <v>77</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
-      <c r="K31" t="s">
-        <v>80</v>
+      <c r="K31">
+        <v>49</v>
       </c>
       <c r="L31">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="M31" t="s">
-        <v>80</v>
+        <v>0.64</v>
+      </c>
+      <c r="M31">
+        <v>28</v>
       </c>
       <c r="N31">
-        <v>0.55300000000000005</v>
+        <v>0.36</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -8998,13 +8998,13 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="R31">
-        <v>0.09</v>
-      </c>
-      <c r="S31">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="S31" t="s">
+        <v>80</v>
       </c>
       <c r="T31" t="s">
         <v>80</v>
@@ -9028,10 +9028,10 @@
         <v>80</v>
       </c>
       <c r="AA31">
-        <v>16</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>80</v>
+        <v>25</v>
+      </c>
+      <c r="AB31">
+        <v>0.32</v>
       </c>
       <c r="AC31" t="s">
         <v>80</v>
@@ -9108,8 +9108,8 @@
       <c r="BA31" t="s">
         <v>80</v>
       </c>
-      <c r="BB31">
-        <v>23</v>
+      <c r="BB31" t="s">
+        <v>80</v>
       </c>
       <c r="BC31" t="s">
         <v>80</v>
@@ -9121,16 +9121,16 @@
         <v>80</v>
       </c>
       <c r="BF31">
-        <v>500</v>
+        <v>49</v>
       </c>
       <c r="BG31" t="s">
         <v>80</v>
       </c>
-      <c r="BH31">
-        <v>10</v>
-      </c>
-      <c r="BI31">
-        <v>1.7000000000000001E-2</v>
+      <c r="BH31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>80</v>
       </c>
       <c r="BJ31" t="s">
         <v>80</v>
@@ -9150,17 +9150,17 @@
       <c r="BO31" t="s">
         <v>80</v>
       </c>
-      <c r="BP31">
-        <v>586</v>
+      <c r="BP31" t="s">
+        <v>80</v>
       </c>
       <c r="BQ31">
         <v>1</v>
       </c>
       <c r="BR31">
-        <v>4</v>
-      </c>
-      <c r="BS31" t="s">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="BS31">
+        <v>0</v>
       </c>
       <c r="BT31">
         <v>0</v>
@@ -9174,8 +9174,8 @@
       <c r="BW31" t="s">
         <v>80</v>
       </c>
-      <c r="BX31">
-        <v>20</v>
+      <c r="BX31" t="s">
+        <v>80</v>
       </c>
       <c r="BY31" t="s">
         <v>80</v>
@@ -9187,13 +9187,13 @@
         <v>80</v>
       </c>
       <c r="CB31">
-        <v>105</v>
-      </c>
-      <c r="CC31" t="s">
-        <v>80</v>
+        <v>12</v>
+      </c>
+      <c r="CC31">
+        <v>0.16</v>
       </c>
       <c r="CD31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CE31">
         <v>0</v>
@@ -9202,21 +9202,21 @@
         <v>0</v>
       </c>
       <c r="CG31">
-        <v>4</v>
-      </c>
-      <c r="CH31" t="s">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="CH31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="C32">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="D32">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="E32" t="s">
         <v>80</v>
@@ -9224,29 +9224,29 @@
       <c r="F32" t="s">
         <v>80</v>
       </c>
-      <c r="G32">
-        <v>37</v>
-      </c>
-      <c r="H32" t="s">
-        <v>80</v>
+      <c r="G32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32">
+        <v>36</v>
       </c>
       <c r="I32">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
-      <c r="K32">
-        <v>49</v>
+      <c r="K32" t="s">
+        <v>80</v>
       </c>
       <c r="L32">
-        <v>0.64</v>
-      </c>
-      <c r="M32">
-        <v>28</v>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M32" t="s">
+        <v>80</v>
       </c>
       <c r="N32">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R32">
-        <v>26</v>
-      </c>
-      <c r="S32" t="s">
-        <v>80</v>
-      </c>
-      <c r="T32" t="s">
-        <v>80</v>
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
       </c>
       <c r="U32" t="s">
         <v>80</v>
@@ -9284,17 +9284,17 @@
       <c r="Z32" t="s">
         <v>80</v>
       </c>
-      <c r="AA32">
-        <v>25</v>
+      <c r="AA32" t="s">
+        <v>80</v>
       </c>
       <c r="AB32">
-        <v>0.32</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>80</v>
+        <v>0.35</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
       </c>
       <c r="AE32" t="s">
         <v>80</v>
@@ -9359,26 +9359,26 @@
       <c r="AY32" t="s">
         <v>80</v>
       </c>
-      <c r="AZ32" t="s">
-        <v>80</v>
-      </c>
-      <c r="BA32" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB32" t="s">
-        <v>80</v>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>3</v>
       </c>
       <c r="BC32" t="s">
         <v>80</v>
       </c>
-      <c r="BD32" t="s">
-        <v>80</v>
+      <c r="BD32">
+        <v>13</v>
       </c>
       <c r="BE32" t="s">
         <v>80</v>
       </c>
       <c r="BF32">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="BG32" t="s">
         <v>80</v>
@@ -9389,29 +9389,29 @@
       <c r="BI32" t="s">
         <v>80</v>
       </c>
-      <c r="BJ32" t="s">
-        <v>80</v>
+      <c r="BJ32">
+        <v>3</v>
       </c>
       <c r="BK32" t="s">
         <v>80</v>
       </c>
-      <c r="BL32" t="s">
-        <v>80</v>
+      <c r="BL32">
+        <v>29</v>
       </c>
       <c r="BM32" t="s">
         <v>80</v>
       </c>
-      <c r="BN32" t="s">
-        <v>80</v>
+      <c r="BN32">
+        <v>16</v>
       </c>
       <c r="BO32" t="s">
         <v>80</v>
       </c>
-      <c r="BP32" t="s">
-        <v>80</v>
+      <c r="BP32">
+        <v>16</v>
       </c>
       <c r="BQ32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BR32">
         <v>0</v>
@@ -9431,294 +9431,37 @@
       <c r="BW32" t="s">
         <v>80</v>
       </c>
-      <c r="BX32" t="s">
-        <v>80</v>
-      </c>
-      <c r="BY32" t="s">
-        <v>80</v>
-      </c>
-      <c r="BZ32" t="s">
-        <v>80</v>
-      </c>
-      <c r="CA32" t="s">
-        <v>80</v>
+      <c r="BX32">
+        <v>0</v>
+      </c>
+      <c r="BY32">
+        <v>0</v>
+      </c>
+      <c r="BZ32">
+        <v>0</v>
+      </c>
+      <c r="CA32">
+        <v>0</v>
       </c>
       <c r="CB32">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="CC32">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="CD32" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="CE32">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="CF32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CG32">
         <v>0</v>
       </c>
       <c r="CH32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>687</v>
-      </c>
-      <c r="C33">
-        <v>26</v>
-      </c>
-      <c r="D33">
-        <v>32</v>
-      </c>
-      <c r="E33" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" t="s">
-        <v>80</v>
-      </c>
-      <c r="H33">
-        <v>36</v>
-      </c>
-      <c r="I33">
-        <v>32</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33" t="s">
-        <v>80</v>
-      </c>
-      <c r="L33">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="M33" t="s">
-        <v>80</v>
-      </c>
-      <c r="N33">
-        <v>0.42</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>17</v>
-      </c>
-      <c r="R33">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33" t="s">
-        <v>80</v>
-      </c>
-      <c r="V33" t="s">
-        <v>80</v>
-      </c>
-      <c r="W33" t="s">
-        <v>80</v>
-      </c>
-      <c r="X33" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB33">
-        <v>0.35</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP33">
-        <v>1</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AZ33">
-        <v>0</v>
-      </c>
-      <c r="BA33">
-        <v>0</v>
-      </c>
-      <c r="BB33">
-        <v>3</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>80</v>
-      </c>
-      <c r="BD33">
-        <v>13</v>
-      </c>
-      <c r="BE33" t="s">
-        <v>80</v>
-      </c>
-      <c r="BF33">
-        <v>19</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>80</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>80</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>80</v>
-      </c>
-      <c r="BJ33">
-        <v>3</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>80</v>
-      </c>
-      <c r="BL33">
-        <v>29</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>80</v>
-      </c>
-      <c r="BN33">
-        <v>16</v>
-      </c>
-      <c r="BO33" t="s">
-        <v>80</v>
-      </c>
-      <c r="BP33">
-        <v>16</v>
-      </c>
-      <c r="BQ33">
-        <v>0.5</v>
-      </c>
-      <c r="BR33">
-        <v>0</v>
-      </c>
-      <c r="BS33">
-        <v>0</v>
-      </c>
-      <c r="BT33">
-        <v>0</v>
-      </c>
-      <c r="BU33">
-        <v>0</v>
-      </c>
-      <c r="BV33" t="s">
-        <v>80</v>
-      </c>
-      <c r="BW33" t="s">
-        <v>80</v>
-      </c>
-      <c r="BX33">
-        <v>0</v>
-      </c>
-      <c r="BY33">
-        <v>0</v>
-      </c>
-      <c r="BZ33">
-        <v>0</v>
-      </c>
-      <c r="CA33">
-        <v>0</v>
-      </c>
-      <c r="CB33">
-        <v>0</v>
-      </c>
-      <c r="CC33">
-        <v>0</v>
-      </c>
-      <c r="CD33" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE33">
-        <v>16</v>
-      </c>
-      <c r="CF33">
-        <v>0.5</v>
-      </c>
-      <c r="CG33">
-        <v>0</v>
-      </c>
-      <c r="CH33">
         <v>0</v>
       </c>
     </row>

--- a/input/raw_data/data_extraction/series_data_end.xlsx
+++ b/input/raw_data/data_extraction/series_data_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723AA070-6EFE-5B49-9691-902A5C138039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E896B80-5289-0245-914A-B9C152CF0820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="12220" xr2:uid="{0E2D75EA-57F1-7A41-B7A5-2B66F384E0FB}"/>
   </bookViews>
